--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62223F4B-45BB-F448-B353-8B7EFB5D0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A9137-4FB5-F346-86E0-50EBBB5EDA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="498">
   <si>
     <t>filetags</t>
   </si>
@@ -287,18 +287,9 @@
     <t>Important Definitions / Terminology / etc.</t>
   </si>
   <si>
-    <t>srss</t>
-  </si>
-  <si>
     <t>suns</t>
   </si>
   <si>
-    <t>I must either call the table</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>serial</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t>rel_utg_id</t>
   </si>
   <si>
-    <t>https://chatgpt.com/c/68877c57-2e94-8323-94fe-00982d3fe9a3</t>
-  </si>
-  <si>
     <t>no gap rule</t>
   </si>
   <si>
@@ -386,6 +374,24 @@
     <t>cfval</t>
   </si>
   <si>
+    <t>cfdefjar</t>
+  </si>
+  <si>
+    <t>cfvaljar</t>
+  </si>
+  <si>
+    <t>yegjar</t>
+  </si>
+  <si>
+    <t>zugjar</t>
+  </si>
+  <si>
+    <t>rackjar</t>
+  </si>
+  <si>
+    <t>sunjar</t>
+  </si>
+  <si>
     <t>asn_mrm_id</t>
   </si>
   <si>
@@ -1515,6 +1521,42 @@
   </si>
   <si>
     <t>cfield_options</t>
+  </si>
+  <si>
+    <t>pluto tableface</t>
+  </si>
+  <si>
+    <t>nubra tableface</t>
+  </si>
+  <si>
+    <t>bensa tableface</t>
+  </si>
+  <si>
+    <t>moonjar</t>
+  </si>
+  <si>
+    <t>lets now work on the nav options that exist below the "pluto jetstream" parent item dropdown in our nav system</t>
+  </si>
+  <si>
+    <t>I want to place a new piece of text to the right of the existing anchor text</t>
+  </si>
+  <si>
+    <t>this new piece of text will no be part of the link - it will be separate</t>
+  </si>
+  <si>
+    <t>the idea is that im manually encoding here the name of the current db table that is(or will be) related to the main ui table grid that occurs on each page</t>
+  </si>
+  <si>
+    <t>please implement the following text in our nav items according to this rubric:</t>
+  </si>
+  <si>
+    <t>pleaes make the text gray and the same size as the normal anchor text that occurs nearby</t>
+  </si>
+  <si>
+    <t>for a class name for this span or div (whatever you decide to make it) , please use the class name</t>
+  </si>
+  <si>
+    <t>kremnav_utg_box</t>
   </si>
 </sst>
 </file>
@@ -1676,6 +1718,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>931333</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1641632</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1B689-04CB-098A-2DE4-D18D792207B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655733" y="7763933"/>
+          <a:ext cx="1827899" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1941,11 +2032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P503"/>
+  <dimension ref="A1:P513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1963,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.2">
@@ -2363,12 +2454,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
@@ -2376,12 +2467,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2392,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D37" s="2" t="s">
         <v>71</v>
       </c>
@@ -2402,152 +2496,111 @@
       <c r="G37" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
       <c r="G38" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
       <c r="G39" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G50" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G51" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>489</v>
+      </c>
+      <c r="K45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G55" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G56" s="3" t="s">
         <v>3</v>
       </c>
@@ -2557,83 +2610,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>76</v>
-      </c>
+    <row r="58" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
-        <v>74</v>
-      </c>
+    <row r="60" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E62" t="s">
-        <v>75</v>
-      </c>
+    <row r="61" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G63" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G64" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H65" t="s">
-        <v>82</v>
+      <c r="H65" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G67" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H67" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.2">
@@ -2641,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.2">
@@ -2649,43 +2741,43 @@
         <v>3</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="73" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="75" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G75" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="7:9" x14ac:dyDescent="0.2">
@@ -2693,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="7:9" x14ac:dyDescent="0.2">
@@ -2701,27 +2793,24 @@
         <v>3</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="79" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G79" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G81" s="3" t="s">
@@ -2732,113 +2821,87 @@
       <c r="G82" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G84" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G85" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G86" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="N88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="O88" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="P88" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G88" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G90" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E92" t="s">
-        <v>101</v>
-      </c>
+    <row r="91" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G92" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E93" t="s">
-        <v>102</v>
-      </c>
+    <row r="93" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G93" s="3" t="s">
         <v>3</v>
       </c>
@@ -2849,780 +2912,631 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
       <c r="G95" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
-        <v>104</v>
-      </c>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G97" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E98" s="2"/>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G98" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E99" s="2"/>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
       <c r="G99" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E101" s="2"/>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G103" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s">
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D103" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D104" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D105" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E109" s="2"/>
+      <c r="G109" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G110" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G113" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I105" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G107" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I107" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G109" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="I115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G110" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G111" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G112" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G113" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G114" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G115" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G116" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G117" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G118" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H118" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G119" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H119" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G120" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G121" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G122" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G123" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G124" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G125" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G126" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E127" s="2"/>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G127" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E128" s="2"/>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G128" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E129" s="2"/>
       <c r="G129" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E130" s="2"/>
       <c r="G130" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E131" s="2"/>
       <c r="G131" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G132" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="L133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="M133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="N133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="O133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="P133" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>327</v>
-      </c>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G133" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G134" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E136" s="2"/>
       <c r="G136" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E137" s="2"/>
+      <c r="G137" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E138" s="2"/>
+      <c r="G138" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E139" s="2"/>
+      <c r="G139" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E140" s="2"/>
+      <c r="G140" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E141" s="2"/>
+      <c r="G141" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G142" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H137" s="1" t="s">
+      <c r="E146" s="2"/>
+      <c r="G146" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D139" t="s">
-        <v>235</v>
-      </c>
-      <c r="E139" t="s">
-        <v>236</v>
-      </c>
-      <c r="F139" t="s">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D149" t="s">
         <v>237</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C140" t="s">
-        <v>329</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E149" t="s">
+        <v>238</v>
+      </c>
+      <c r="F149" t="s">
         <v>239</v>
       </c>
-      <c r="E140" t="s">
-        <v>236</v>
-      </c>
-      <c r="F140" t="s">
-        <v>330</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C141" t="s">
-        <v>287</v>
-      </c>
-      <c r="D141" t="s">
-        <v>239</v>
-      </c>
-      <c r="E141" t="s">
-        <v>247</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="G149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C150" t="s">
         <v>331</v>
       </c>
-      <c r="G141" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D150" t="s">
+        <v>241</v>
+      </c>
+      <c r="E150" t="s">
+        <v>238</v>
+      </c>
+      <c r="F150" t="s">
+        <v>332</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" t="s">
         <v>289</v>
       </c>
-      <c r="D142" t="s">
-        <v>279</v>
-      </c>
-      <c r="E142" t="s">
-        <v>247</v>
-      </c>
-      <c r="F142" t="s">
-        <v>332</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D151" t="s">
+        <v>241</v>
+      </c>
+      <c r="E151" t="s">
+        <v>249</v>
+      </c>
+      <c r="F151" t="s">
         <v>333</v>
       </c>
-      <c r="D143" t="s">
-        <v>244</v>
-      </c>
-      <c r="E143" t="s">
-        <v>247</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G151" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" t="s">
+        <v>291</v>
+      </c>
+      <c r="D152" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152" t="s">
+        <v>249</v>
+      </c>
+      <c r="F152" t="s">
         <v>334</v>
       </c>
-      <c r="G143" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="G152" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" t="s">
         <v>335</v>
       </c>
-      <c r="D144" t="s">
-        <v>259</v>
-      </c>
-      <c r="E144" t="s">
-        <v>247</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="D153" t="s">
+        <v>246</v>
+      </c>
+      <c r="E153" t="s">
+        <v>249</v>
+      </c>
+      <c r="F153" t="s">
         <v>336</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="G153" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154" t="s">
         <v>337</v>
       </c>
-      <c r="D145" t="s">
-        <v>254</v>
-      </c>
-      <c r="E145" t="s">
-        <v>247</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="D154" t="s">
+        <v>261</v>
+      </c>
+      <c r="E154" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" t="s">
         <v>338</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="G154" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" t="s">
         <v>339</v>
       </c>
-      <c r="D146" t="s">
-        <v>303</v>
-      </c>
-      <c r="E146" t="s">
-        <v>247</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="D155" t="s">
+        <v>256</v>
+      </c>
+      <c r="E155" t="s">
+        <v>249</v>
+      </c>
+      <c r="F155" t="s">
         <v>340</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="G155" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" t="s">
         <v>341</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D156" t="s">
+        <v>305</v>
+      </c>
+      <c r="E156" t="s">
+        <v>249</v>
+      </c>
+      <c r="F156" t="s">
         <v>342</v>
       </c>
-      <c r="E147" t="s">
-        <v>247</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="G156" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157" t="s">
         <v>343</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="D157" t="s">
         <v>344</v>
       </c>
-      <c r="D148" t="s">
-        <v>244</v>
-      </c>
-      <c r="E148" t="s">
-        <v>247</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E157" t="s">
+        <v>249</v>
+      </c>
+      <c r="F157" t="s">
         <v>345</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="G157" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" t="s">
         <v>346</v>
       </c>
-      <c r="D149" t="s">
-        <v>244</v>
-      </c>
-      <c r="E149" t="s">
-        <v>247</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="D158" t="s">
+        <v>246</v>
+      </c>
+      <c r="E158" t="s">
+        <v>249</v>
+      </c>
+      <c r="F158" t="s">
         <v>347</v>
       </c>
-      <c r="G149" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="G158" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" t="s">
         <v>348</v>
       </c>
-      <c r="D150" t="s">
-        <v>254</v>
-      </c>
-      <c r="E150" t="s">
-        <v>247</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="D159" t="s">
+        <v>246</v>
+      </c>
+      <c r="E159" t="s">
+        <v>249</v>
+      </c>
+      <c r="F159" t="s">
         <v>349</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="G159" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160" t="s">
         <v>350</v>
       </c>
-      <c r="D151" t="s">
-        <v>271</v>
-      </c>
-      <c r="E151" t="s">
-        <v>247</v>
-      </c>
-      <c r="F151" t="s">
-        <v>272</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="D160" t="s">
+        <v>256</v>
+      </c>
+      <c r="E160" t="s">
+        <v>249</v>
+      </c>
+      <c r="F160" t="s">
         <v>351</v>
-      </c>
-      <c r="D152" t="s">
-        <v>271</v>
-      </c>
-      <c r="E152" t="s">
-        <v>247</v>
-      </c>
-      <c r="F152" t="s">
-        <v>352</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C153" t="s">
-        <v>353</v>
-      </c>
-      <c r="D153" t="s">
-        <v>252</v>
-      </c>
-      <c r="E153" t="s">
-        <v>247</v>
-      </c>
-      <c r="F153" t="s">
-        <v>354</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C154" t="s">
-        <v>355</v>
-      </c>
-      <c r="D154" t="s">
-        <v>259</v>
-      </c>
-      <c r="E154" t="s">
-        <v>247</v>
-      </c>
-      <c r="F154" t="s">
-        <v>356</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C155" t="s">
-        <v>357</v>
-      </c>
-      <c r="D155" t="s">
-        <v>271</v>
-      </c>
-      <c r="E155" t="s">
-        <v>247</v>
-      </c>
-      <c r="F155" t="s">
-        <v>358</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C156" t="s">
-        <v>359</v>
-      </c>
-      <c r="D156" t="s">
-        <v>271</v>
-      </c>
-      <c r="E156" t="s">
-        <v>247</v>
-      </c>
-      <c r="F156" t="s">
-        <v>360</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C157" t="s">
-        <v>361</v>
-      </c>
-      <c r="D157" t="s">
-        <v>271</v>
-      </c>
-      <c r="E157" t="s">
-        <v>247</v>
-      </c>
-      <c r="F157" t="s">
-        <v>362</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C158" t="s">
-        <v>363</v>
-      </c>
-      <c r="D158" t="s">
-        <v>259</v>
-      </c>
-      <c r="E158" t="s">
-        <v>247</v>
-      </c>
-      <c r="F158" t="s">
-        <v>364</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C159" t="s">
-        <v>365</v>
-      </c>
-      <c r="D159" t="s">
-        <v>259</v>
-      </c>
-      <c r="E159" t="s">
-        <v>247</v>
-      </c>
-      <c r="F159" t="s">
-        <v>366</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C160" t="s">
-        <v>367</v>
-      </c>
-      <c r="D160" t="s">
-        <v>254</v>
-      </c>
-      <c r="E160" t="s">
-        <v>247</v>
-      </c>
-      <c r="F160" t="s">
-        <v>368</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>3</v>
@@ -3630,19 +3544,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D161" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F161" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>3</v>
@@ -3650,19 +3564,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C162" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D162" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E162" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F162" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>3</v>
@@ -3670,19 +3584,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D163" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E163" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F163" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>3</v>
@@ -3690,19 +3604,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C164" t="s">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="E164" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>3</v>
@@ -3710,19 +3624,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C165" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="D165" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E165" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>3</v>
@@ -3730,19 +3644,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D166" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="E166" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>3</v>
@@ -3750,19 +3664,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D167" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="E167" t="s">
-        <v>376</v>
+        <v>249</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>3</v>
@@ -3770,545 +3684,544 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="C168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D168" t="s">
+        <v>261</v>
+      </c>
+      <c r="E168" t="s">
+        <v>249</v>
+      </c>
+      <c r="F168" t="s">
+        <v>366</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" t="s">
+        <v>367</v>
+      </c>
+      <c r="D169" t="s">
+        <v>261</v>
+      </c>
+      <c r="E169" t="s">
+        <v>249</v>
+      </c>
+      <c r="F169" t="s">
+        <v>368</v>
+      </c>
       <c r="G169" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="C170" t="s">
+        <v>369</v>
+      </c>
+      <c r="D170" t="s">
+        <v>256</v>
+      </c>
+      <c r="E170" t="s">
+        <v>249</v>
+      </c>
+      <c r="F170" t="s">
+        <v>370</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C171" t="s">
+        <v>371</v>
+      </c>
+      <c r="D171" t="s">
+        <v>256</v>
+      </c>
+      <c r="E171" t="s">
+        <v>249</v>
+      </c>
+      <c r="F171" t="s">
+        <v>372</v>
+      </c>
       <c r="G171" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="C172" t="s">
+        <v>373</v>
+      </c>
+      <c r="D172" t="s">
+        <v>256</v>
+      </c>
+      <c r="E172" t="s">
+        <v>249</v>
+      </c>
+      <c r="F172" t="s">
+        <v>374</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" t="s">
+        <v>318</v>
+      </c>
+      <c r="D173" t="s">
+        <v>261</v>
+      </c>
+      <c r="E173" t="s">
+        <v>249</v>
+      </c>
+      <c r="F173" t="s">
+        <v>319</v>
+      </c>
       <c r="G173" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
+      </c>
+      <c r="C174" t="s">
+        <v>90</v>
+      </c>
+      <c r="D174" t="s">
+        <v>305</v>
+      </c>
+      <c r="E174" t="s">
+        <v>249</v>
+      </c>
+      <c r="F174" t="s">
+        <v>320</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" t="s">
+        <v>91</v>
+      </c>
+      <c r="D175" t="s">
+        <v>305</v>
+      </c>
+      <c r="E175" t="s">
+        <v>249</v>
+      </c>
+      <c r="F175" t="s">
+        <v>320</v>
+      </c>
       <c r="G175" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176" t="s">
+        <v>375</v>
+      </c>
+      <c r="D176" t="s">
+        <v>322</v>
+      </c>
+      <c r="E176" t="s">
+        <v>376</v>
+      </c>
+      <c r="F176" t="s">
+        <v>324</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C177" t="s">
+        <v>377</v>
+      </c>
+      <c r="D177" t="s">
+        <v>322</v>
+      </c>
+      <c r="E177" t="s">
+        <v>378</v>
+      </c>
+      <c r="F177" t="s">
+        <v>324</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+      <c r="G179" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+      <c r="G181" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+      <c r="G182" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
+      <c r="G183" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E179" s="2"/>
-      <c r="G179" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E180" s="2"/>
-      <c r="G180" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G181" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G182" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G183" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G184" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
       <c r="G185" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G186" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="M187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="O187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="P187" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>327</v>
-      </c>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E189" s="2"/>
       <c r="G189" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E190" s="2"/>
+      <c r="G190" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G191" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G193" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G194" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G195" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G196" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="O197" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="P197" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A200" s="11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>108</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>109</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="G200" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E193" t="s">
+    </row>
+    <row r="201" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>110</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F193" t="s">
+      <c r="D203" t="s">
         <v>237</v>
       </c>
-      <c r="G193" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>110</v>
-      </c>
-      <c r="C194" s="2" t="s">
+      <c r="E203" t="s">
         <v>238</v>
       </c>
-      <c r="D194" t="s">
+      <c r="F203" t="s">
         <v>239</v>
       </c>
-      <c r="E194" t="s">
-        <v>236</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="G203" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>112</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H194" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>111</v>
-      </c>
-      <c r="C195" s="2" t="s">
+      <c r="D204" t="s">
         <v>241</v>
       </c>
-      <c r="D195" t="s">
-        <v>239</v>
-      </c>
-      <c r="E195" t="s">
-        <v>236</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="E204" t="s">
+        <v>238</v>
+      </c>
+      <c r="F204" t="s">
         <v>242</v>
       </c>
-      <c r="G195" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>112</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="G204" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H204" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>113</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D205" t="s">
+        <v>241</v>
+      </c>
+      <c r="E205" t="s">
+        <v>238</v>
+      </c>
+      <c r="F205" t="s">
         <v>244</v>
       </c>
-      <c r="E196" t="s">
-        <v>236</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="G205" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H205" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" t="s">
         <v>245</v>
       </c>
-      <c r="G196" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>113</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="D206" t="s">
         <v>246</v>
       </c>
-      <c r="D197" t="s">
-        <v>244</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="E206" t="s">
+        <v>238</v>
+      </c>
+      <c r="F206" t="s">
         <v>247</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G206" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>115</v>
+      </c>
+      <c r="C207" t="s">
         <v>248</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>114</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="D207" t="s">
+        <v>246</v>
+      </c>
+      <c r="E207" t="s">
         <v>249</v>
       </c>
-      <c r="D198" t="s">
-        <v>244</v>
-      </c>
-      <c r="E198" t="s">
-        <v>247</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="F207" t="s">
         <v>250</v>
       </c>
-      <c r="G198" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>115</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="G207" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" t="s">
         <v>251</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D208" t="s">
+        <v>246</v>
+      </c>
+      <c r="E208" t="s">
+        <v>249</v>
+      </c>
+      <c r="F208" t="s">
         <v>252</v>
-      </c>
-      <c r="E199" t="s">
-        <v>247</v>
-      </c>
-      <c r="F199" t="e" cm="1">
-        <f t="array" ref="F199">-- For UI table display</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>116</v>
-      </c>
-      <c r="C200" t="s">
-        <v>253</v>
-      </c>
-      <c r="D200" t="s">
-        <v>254</v>
-      </c>
-      <c r="E200" t="s">
-        <v>247</v>
-      </c>
-      <c r="F200" t="s">
-        <v>255</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>117</v>
-      </c>
-      <c r="C201" t="s">
-        <v>256</v>
-      </c>
-      <c r="D201" t="s">
-        <v>254</v>
-      </c>
-      <c r="E201" t="s">
-        <v>247</v>
-      </c>
-      <c r="F201" t="s">
-        <v>257</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>118</v>
-      </c>
-      <c r="C202" t="s">
-        <v>258</v>
-      </c>
-      <c r="D202" t="s">
-        <v>259</v>
-      </c>
-      <c r="E202" t="s">
-        <v>247</v>
-      </c>
-      <c r="F202" t="s">
-        <v>260</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>119</v>
-      </c>
-      <c r="C203" t="s">
-        <v>261</v>
-      </c>
-      <c r="D203" t="s">
-        <v>259</v>
-      </c>
-      <c r="E203" t="s">
-        <v>247</v>
-      </c>
-      <c r="F203" t="s">
-        <v>262</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>120</v>
-      </c>
-      <c r="C204" t="s">
-        <v>263</v>
-      </c>
-      <c r="D204" t="s">
-        <v>254</v>
-      </c>
-      <c r="E204" t="s">
-        <v>247</v>
-      </c>
-      <c r="F204" t="s">
-        <v>264</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>121</v>
-      </c>
-      <c r="C205" t="s">
-        <v>265</v>
-      </c>
-      <c r="D205" t="s">
-        <v>254</v>
-      </c>
-      <c r="E205" t="s">
-        <v>247</v>
-      </c>
-      <c r="F205" t="s">
-        <v>266</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>122</v>
-      </c>
-      <c r="C206" t="s">
-        <v>267</v>
-      </c>
-      <c r="D206" t="s">
-        <v>254</v>
-      </c>
-      <c r="E206" t="s">
-        <v>247</v>
-      </c>
-      <c r="F206" t="s">
-        <v>266</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>123</v>
-      </c>
-      <c r="C207" t="s">
-        <v>268</v>
-      </c>
-      <c r="D207" t="s">
-        <v>254</v>
-      </c>
-      <c r="E207" t="s">
-        <v>247</v>
-      </c>
-      <c r="F207" t="s">
-        <v>269</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>124</v>
-      </c>
-      <c r="C208" t="s">
-        <v>270</v>
-      </c>
-      <c r="D208" t="s">
-        <v>271</v>
-      </c>
-      <c r="E208" t="s">
-        <v>247</v>
-      </c>
-      <c r="F208" t="s">
-        <v>272</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>3</v>
@@ -4316,19 +4229,20 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C209" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D209" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E209" t="s">
-        <v>247</v>
-      </c>
-      <c r="F209" t="s">
-        <v>274</v>
+        <v>249</v>
+      </c>
+      <c r="F209" t="e" cm="1">
+        <f t="array" ref="F209">-- For UI table display</f>
+        <v>#NAME?</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>3</v>
@@ -4336,19 +4250,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C210" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D210" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E210" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F210" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>3</v>
@@ -4356,19 +4270,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C211" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D211" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E211" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F211" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>3</v>
@@ -4376,19 +4290,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C212" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D212" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E212" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F212" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>3</v>
@@ -4396,19 +4310,19 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C213" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D213" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E213" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F213" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>3</v>
@@ -4416,19 +4330,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C214" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D214" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E214" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F214" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>3</v>
@@ -4436,19 +4350,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C215" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D215" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E215" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F215" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>3</v>
@@ -4456,19 +4370,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C216" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D216" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E216" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F216" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>3</v>
@@ -4476,19 +4390,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C217" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D217" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E217" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F217" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>3</v>
@@ -4496,19 +4410,19 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C218" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D218" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E218" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F218" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>3</v>
@@ -4516,19 +4430,19 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C219" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D219" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E219" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F219" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>3</v>
@@ -4536,19 +4450,19 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C220" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D220" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="E220" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F220" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>3</v>
@@ -4556,19 +4470,19 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C221" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D221" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E221" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F221" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>3</v>
@@ -4576,19 +4490,19 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C222" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D222" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E222" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F222" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>3</v>
@@ -4596,19 +4510,19 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C223" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D223" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E223" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F223" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>3</v>
@@ -4616,19 +4530,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C224" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D224" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E224" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F224" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>3</v>
@@ -4636,19 +4550,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C225" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D225" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E225" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F225" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>3</v>
@@ -4656,19 +4570,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C226" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D226" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="E226" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F226" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>3</v>
@@ -4676,19 +4590,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C227" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D227" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="E227" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F227" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>3</v>
@@ -4696,19 +4610,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C228" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D228" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E228" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F228" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>3</v>
@@ -4716,19 +4630,19 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C229" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D229" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F229" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>3</v>
@@ -4736,19 +4650,19 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C230" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D230" t="s">
         <v>254</v>
       </c>
       <c r="E230" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F230" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>3</v>
@@ -4756,19 +4670,19 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C231" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D231" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E231" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F231" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>3</v>
@@ -4776,19 +4690,19 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C232" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D232" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E232" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F232" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>3</v>
@@ -4796,19 +4710,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C233" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D233" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E233" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F233" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>3</v>
@@ -4816,19 +4730,19 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C234" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="D234" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="E234" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F234" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>3</v>
@@ -4836,19 +4750,19 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C235" t="s">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="D235" t="s">
+        <v>256</v>
+      </c>
+      <c r="E235" t="s">
+        <v>249</v>
+      </c>
+      <c r="F235" t="s">
         <v>303</v>
-      </c>
-      <c r="E235" t="s">
-        <v>247</v>
-      </c>
-      <c r="F235" t="s">
-        <v>318</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>3</v>
@@ -4856,19 +4770,19 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C236" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D236" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E236" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="F236" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>3</v>
@@ -4876,19 +4790,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C237" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D237" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="E237" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="F237" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>3</v>
@@ -4896,19 +4810,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C238" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D238" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="E238" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="F238" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>3</v>
@@ -4916,422 +4830,542 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>147</v>
+      </c>
+      <c r="C239" t="s">
+        <v>310</v>
+      </c>
+      <c r="D239" t="s">
+        <v>305</v>
+      </c>
+      <c r="E239" t="s">
+        <v>249</v>
+      </c>
+      <c r="F239" t="s">
+        <v>311</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>148</v>
+      </c>
+      <c r="C240" t="s">
+        <v>312</v>
+      </c>
+      <c r="D240" t="s">
+        <v>256</v>
+      </c>
+      <c r="E240" t="s">
+        <v>249</v>
+      </c>
+      <c r="F240" t="s">
+        <v>313</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>149</v>
+      </c>
+      <c r="C241" t="s">
+        <v>314</v>
+      </c>
+      <c r="D241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="s">
+        <v>249</v>
+      </c>
+      <c r="F241" t="s">
+        <v>315</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>150</v>
+      </c>
+      <c r="C242" t="s">
+        <v>316</v>
+      </c>
+      <c r="D242" t="s">
+        <v>261</v>
+      </c>
+      <c r="E242" t="s">
+        <v>249</v>
+      </c>
+      <c r="F242" t="s">
+        <v>317</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>151</v>
+      </c>
+      <c r="C243" t="s">
+        <v>318</v>
+      </c>
+      <c r="D243" t="s">
+        <v>261</v>
+      </c>
+      <c r="E243" t="s">
+        <v>249</v>
+      </c>
+      <c r="F243" t="s">
+        <v>319</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="C244" t="s">
+        <v>90</v>
+      </c>
+      <c r="D244" t="s">
+        <v>305</v>
+      </c>
+      <c r="E244" t="s">
+        <v>249</v>
+      </c>
+      <c r="F244" t="s">
+        <v>320</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>153</v>
+      </c>
+      <c r="C245" t="s">
+        <v>91</v>
+      </c>
+      <c r="D245" t="s">
+        <v>305</v>
+      </c>
+      <c r="E245" t="s">
+        <v>249</v>
+      </c>
+      <c r="F245" t="s">
+        <v>320</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>154</v>
+      </c>
+      <c r="C246" t="s">
+        <v>321</v>
+      </c>
+      <c r="D246" t="s">
+        <v>322</v>
+      </c>
+      <c r="E246" t="s">
+        <v>323</v>
+      </c>
+      <c r="F246" t="s">
+        <v>324</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>155</v>
       </c>
-      <c r="G239" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G240" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+      <c r="C247" t="s">
+        <v>325</v>
+      </c>
+      <c r="D247" t="s">
+        <v>322</v>
+      </c>
+      <c r="E247" t="s">
+        <v>326</v>
+      </c>
+      <c r="F247" t="s">
+        <v>324</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>156</v>
       </c>
-      <c r="G241" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G242" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+      <c r="C248" t="s">
+        <v>327</v>
+      </c>
+      <c r="D248" t="s">
+        <v>322</v>
+      </c>
+      <c r="E248" t="s">
+        <v>328</v>
+      </c>
+      <c r="F248" t="s">
+        <v>324</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>157</v>
       </c>
-      <c r="G243" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G244" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="G249" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G250" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>158</v>
       </c>
-      <c r="G245" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G246" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+      <c r="G251" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G252" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>159</v>
       </c>
-      <c r="G247" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+      <c r="G253" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G254" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>160</v>
       </c>
-      <c r="G248" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+      <c r="G255" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G256" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>161</v>
       </c>
-      <c r="G249" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G250" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="H253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="J253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="K253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="L253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="M253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="N253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="O253" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="P253" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A256" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="H256" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G257" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H259" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G260" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="K263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="L263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="N263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="O263" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="P263" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A266" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G267" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>194</v>
       </c>
-      <c r="G260" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H260" s="16"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+      <c r="G268" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
         <v>195</v>
       </c>
-      <c r="G261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H261" s="16" t="s">
+      <c r="G269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H269" s="16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>196</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H270" s="16"/>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>197</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H271" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>198</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>199</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>200</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>201</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>152</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>153</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>202</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H278" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>196</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>197</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>198</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>199</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>150</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>151</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>200</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H268" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>201</v>
-      </c>
-      <c r="G269" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>138</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>137</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>202</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>203</v>
       </c>
-      <c r="G273" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="G279" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>140</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>139</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>204</v>
       </c>
-      <c r="G274" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="G282" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>205</v>
       </c>
-      <c r="G275" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="16" t="s">
+      <c r="G283" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>206</v>
       </c>
-      <c r="G276" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="16" t="s">
+      <c r="G284" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>207</v>
       </c>
-      <c r="G277" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="16" t="s">
+      <c r="G285" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="G278" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="16" t="s">
+      <c r="G286" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G279" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="G287" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G280" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="G288" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="G281" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>212</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>213</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>214</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>215</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>216</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>217</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>218</v>
-      </c>
-      <c r="G288" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>219</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>3</v>
@@ -5339,7 +5373,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>3</v>
@@ -5347,7 +5381,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>3</v>
@@ -5355,7 +5389,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>3</v>
@@ -5363,72 +5397,87 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>216</v>
+      </c>
       <c r="G294" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>218</v>
+      </c>
       <c r="G296" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>220</v>
+      </c>
       <c r="G298" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>222</v>
+      </c>
       <c r="G300" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>224</v>
+      </c>
       <c r="G302" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>3</v>
@@ -5441,23 +5490,20 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>229</v>
-      </c>
       <c r="G306" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>3</v>
@@ -5469,6 +5515,9 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>227</v>
+      </c>
       <c r="G309" s="3" t="s">
         <v>3</v>
       </c>
@@ -5479,6 +5528,9 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>228</v>
+      </c>
       <c r="G311" s="3" t="s">
         <v>3</v>
       </c>
@@ -5489,6 +5541,9 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>229</v>
+      </c>
       <c r="G313" s="3" t="s">
         <v>3</v>
       </c>
@@ -5499,356 +5554,221 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>230</v>
+      </c>
       <c r="G315" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>231</v>
+      </c>
       <c r="G316" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>163</v>
+      </c>
       <c r="G317" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G318" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G318" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G319" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C320" s="6" t="s">
-        <v>465</v>
-      </c>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G320" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G321" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G322" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G323" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G324" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G325" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G326" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O327" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P327" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E330" s="20" t="s">
-        <v>105</v>
+    <row r="326" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G326" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G327" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G328" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G329" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C330" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H330" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E331" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>382</v>
-      </c>
+    </row>
+    <row r="331" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G331" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G332" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+    <row r="333" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G333" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G334" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G335" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G336" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O337" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P337" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E340" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H340" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E341" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="G341" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>384</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="G342" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
         <v>385</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="C343" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F333" s="2" t="s">
+      <c r="D343" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G333" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A334" s="14" t="s">
+      <c r="E343" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C334" t="s">
+      <c r="F343" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="D334" t="s">
-        <v>235</v>
-      </c>
-      <c r="E334" t="s">
-        <v>390</v>
-      </c>
-      <c r="G334" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A335" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C335" t="s">
-        <v>392</v>
-      </c>
-      <c r="D335" t="s">
-        <v>254</v>
-      </c>
-      <c r="E335" t="s">
-        <v>393</v>
-      </c>
-      <c r="G335" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A336" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C336" t="s">
-        <v>395</v>
-      </c>
-      <c r="D336" t="s">
-        <v>252</v>
-      </c>
-      <c r="E336" t="s">
-        <v>236</v>
-      </c>
-      <c r="F336" t="s">
-        <v>396</v>
-      </c>
-      <c r="G336" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A337" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C337" t="s">
-        <v>398</v>
-      </c>
-      <c r="D337" t="s">
-        <v>244</v>
-      </c>
-      <c r="E337" t="s">
-        <v>236</v>
-      </c>
-      <c r="F337" t="s">
-        <v>399</v>
-      </c>
-      <c r="G337" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A338" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C338" t="s">
-        <v>401</v>
-      </c>
-      <c r="D338" t="s">
-        <v>402</v>
-      </c>
-      <c r="E338" t="s">
-        <v>236</v>
-      </c>
-      <c r="F338" t="s">
-        <v>403</v>
-      </c>
-      <c r="G338" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A339" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C339" t="s">
-        <v>405</v>
-      </c>
-      <c r="D339" t="s">
-        <v>252</v>
-      </c>
-      <c r="E339" t="s">
-        <v>236</v>
-      </c>
-      <c r="F339" t="s">
-        <v>406</v>
-      </c>
-      <c r="G339" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A340" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C340" t="s">
-        <v>408</v>
-      </c>
-      <c r="D340" t="s">
-        <v>259</v>
-      </c>
-      <c r="F340" t="s">
-        <v>409</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A341" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C341" t="s">
-        <v>411</v>
-      </c>
-      <c r="D341" t="s">
-        <v>279</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A342" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C342" t="s">
-        <v>413</v>
-      </c>
-      <c r="D342" t="s">
-        <v>271</v>
-      </c>
-      <c r="E342" t="s">
-        <v>274</v>
-      </c>
-      <c r="G342" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A343" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C343" t="s">
-        <v>295</v>
-      </c>
-      <c r="D343" t="s">
-        <v>271</v>
-      </c>
-      <c r="E343" t="s">
-        <v>272</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>3</v>
@@ -5856,36 +5776,36 @@
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C344" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="D344" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E344" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C345" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D345" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E345" t="s">
-        <v>419</v>
-      </c>
-      <c r="F345" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>3</v>
@@ -5893,16 +5813,19 @@
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C346" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="D346" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E346" t="s">
-        <v>272</v>
+        <v>238</v>
+      </c>
+      <c r="F346" t="s">
+        <v>398</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>3</v>
@@ -5910,599 +5833,740 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="C347" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="D347" t="s">
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="E347" t="s">
-        <v>424</v>
+        <v>238</v>
+      </c>
+      <c r="F347" t="s">
+        <v>401</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C348" t="s">
+        <v>403</v>
+      </c>
+      <c r="D348" t="s">
+        <v>404</v>
+      </c>
+      <c r="E348" t="s">
+        <v>238</v>
+      </c>
+      <c r="F348" t="s">
+        <v>405</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A349" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C349" t="s">
+        <v>407</v>
+      </c>
+      <c r="D349" t="s">
+        <v>254</v>
+      </c>
+      <c r="E349" t="s">
+        <v>238</v>
+      </c>
+      <c r="F349" t="s">
+        <v>408</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A350" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C350" t="s">
+        <v>410</v>
+      </c>
+      <c r="D350" t="s">
+        <v>261</v>
+      </c>
+      <c r="F350" t="s">
+        <v>411</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A351" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C351" t="s">
+        <v>413</v>
+      </c>
+      <c r="D351" t="s">
+        <v>281</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A352" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C352" t="s">
+        <v>415</v>
+      </c>
+      <c r="D352" t="s">
+        <v>273</v>
+      </c>
+      <c r="E352" t="s">
+        <v>276</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A353" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C353" t="s">
+        <v>297</v>
+      </c>
+      <c r="D353" t="s">
+        <v>273</v>
+      </c>
+      <c r="E353" t="s">
+        <v>274</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A354" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C354" t="s">
+        <v>418</v>
+      </c>
+      <c r="D354" t="s">
+        <v>256</v>
+      </c>
+      <c r="E354" t="s">
+        <v>313</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A355" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C355" t="s">
+        <v>420</v>
+      </c>
+      <c r="D355" t="s">
+        <v>256</v>
+      </c>
+      <c r="E355" t="s">
+        <v>421</v>
+      </c>
+      <c r="F355" t="s">
+        <v>422</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A356" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C356" t="s">
+        <v>352</v>
+      </c>
+      <c r="D356" t="s">
+        <v>273</v>
+      </c>
+      <c r="E356" t="s">
+        <v>274</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A357" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C357" t="s">
+        <v>90</v>
+      </c>
+      <c r="D357" t="s">
         <v>425</v>
       </c>
-      <c r="C348" t="s">
-        <v>95</v>
-      </c>
-      <c r="D348" t="s">
-        <v>423</v>
-      </c>
-      <c r="E348" t="s">
+      <c r="E357" t="s">
+        <v>426</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A358" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C358" t="s">
+        <v>91</v>
+      </c>
+      <c r="D358" t="s">
+        <v>425</v>
+      </c>
+      <c r="E358" t="s">
+        <v>426</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>428</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>429</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O362" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P362" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E365" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E366" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>431</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>432</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A369" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C369" t="s">
+        <v>434</v>
+      </c>
+      <c r="D369" t="s">
+        <v>237</v>
+      </c>
+      <c r="E369" t="s">
+        <v>392</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A370" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C370" t="s">
+        <v>391</v>
+      </c>
+      <c r="D370" t="s">
+        <v>256</v>
+      </c>
+      <c r="E370" t="s">
+        <v>436</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A371" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C371" t="s">
+        <v>438</v>
+      </c>
+      <c r="D371" t="s">
+        <v>256</v>
+      </c>
+      <c r="E371" t="s">
+        <v>238</v>
+      </c>
+      <c r="F371" t="s">
+        <v>439</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A372" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C372" t="s">
+        <v>441</v>
+      </c>
+      <c r="D372" t="s">
+        <v>254</v>
+      </c>
+      <c r="E372" t="s">
+        <v>238</v>
+      </c>
+      <c r="F372" t="s">
+        <v>442</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A373" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C373" t="s">
+        <v>444</v>
+      </c>
+      <c r="D373" t="s">
+        <v>281</v>
+      </c>
+      <c r="F373" t="s">
+        <v>445</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A374" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="G348" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+      <c r="C374" t="s">
+        <v>90</v>
+      </c>
+      <c r="D374" t="s">
+        <v>425</v>
+      </c>
+      <c r="E374" t="s">
         <v>426</v>
       </c>
-      <c r="G349" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+      <c r="G374" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A375" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G350" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O352" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P352" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E355" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E356" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+      <c r="C375" t="s">
+        <v>91</v>
+      </c>
+      <c r="D375" t="s">
+        <v>425</v>
+      </c>
+      <c r="E375" t="s">
+        <v>426</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>446</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>429</v>
       </c>
-      <c r="G357" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>430</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E358" s="2" t="s">
+      <c r="G377" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G378" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="K384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="L384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="M384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="N384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="O384" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P384" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E386" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H386" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E387" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>448</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>449</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F358" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G358" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A359" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C359" t="s">
-        <v>432</v>
-      </c>
-      <c r="D359" t="s">
-        <v>235</v>
-      </c>
-      <c r="E359" t="s">
-        <v>390</v>
-      </c>
-      <c r="G359" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A360" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C360" t="s">
+      <c r="E389" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F389" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D360" t="s">
+      <c r="G389" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C390" t="s">
+        <v>451</v>
+      </c>
+      <c r="D390" t="s">
+        <v>237</v>
+      </c>
+      <c r="E390" t="s">
+        <v>392</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C391" t="s">
+        <v>453</v>
+      </c>
+      <c r="D391" t="s">
         <v>254</v>
       </c>
-      <c r="E360" t="s">
-        <v>434</v>
-      </c>
-      <c r="G360" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A361" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C361" t="s">
-        <v>436</v>
-      </c>
-      <c r="D361" t="s">
+      <c r="E391" t="s">
+        <v>454</v>
+      </c>
+      <c r="F391" t="s">
+        <v>455</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C392" t="s">
+        <v>457</v>
+      </c>
+      <c r="D392" t="s">
         <v>254</v>
       </c>
-      <c r="E361" t="s">
-        <v>236</v>
-      </c>
-      <c r="F361" t="s">
-        <v>437</v>
-      </c>
-      <c r="G361" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A362" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C362" t="s">
-        <v>439</v>
-      </c>
-      <c r="D362" t="s">
-        <v>252</v>
-      </c>
-      <c r="E362" t="s">
-        <v>236</v>
-      </c>
-      <c r="F362" t="s">
-        <v>440</v>
-      </c>
-      <c r="G362" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A363" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C363" t="s">
-        <v>442</v>
-      </c>
-      <c r="D363" t="s">
-        <v>279</v>
-      </c>
-      <c r="F363" t="s">
-        <v>443</v>
-      </c>
-      <c r="G363" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A364" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C364" t="s">
-        <v>94</v>
-      </c>
-      <c r="D364" t="s">
-        <v>423</v>
-      </c>
-      <c r="E364" t="s">
-        <v>424</v>
-      </c>
-      <c r="G364" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A365" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C365" t="s">
-        <v>95</v>
-      </c>
-      <c r="D365" t="s">
-        <v>423</v>
-      </c>
-      <c r="E365" t="s">
-        <v>424</v>
-      </c>
-      <c r="G365" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>444</v>
-      </c>
-      <c r="G366" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>427</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G368" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="H374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="I374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="J374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="K374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="L374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="N374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="O374" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="P374" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E376" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H376" s="20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E377" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G377" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>446</v>
-      </c>
-      <c r="G378" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>447</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E379" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F379" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G379" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A380" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C380" t="s">
-        <v>449</v>
-      </c>
-      <c r="D380" t="s">
-        <v>235</v>
-      </c>
-      <c r="E380" t="s">
-        <v>390</v>
-      </c>
-      <c r="G380" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A381" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C381" t="s">
-        <v>451</v>
-      </c>
-      <c r="D381" t="s">
-        <v>252</v>
-      </c>
-      <c r="E381" t="s">
-        <v>452</v>
-      </c>
-      <c r="F381" t="s">
-        <v>453</v>
-      </c>
-      <c r="G381" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A382" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C382" t="s">
-        <v>455</v>
-      </c>
-      <c r="D382" t="s">
-        <v>252</v>
-      </c>
-      <c r="E382" t="s">
-        <v>236</v>
-      </c>
-      <c r="F382" t="s">
-        <v>456</v>
-      </c>
-      <c r="G382" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A383" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C383" t="s">
+      <c r="E392" t="s">
+        <v>238</v>
+      </c>
+      <c r="F392" t="s">
         <v>458</v>
       </c>
-      <c r="D383" t="s">
-        <v>252</v>
-      </c>
-      <c r="E383" t="s">
-        <v>236</v>
-      </c>
-      <c r="F383" t="s">
+      <c r="G392" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="G383" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A384" s="17" t="s">
+      <c r="C393" t="s">
         <v>460</v>
       </c>
-      <c r="C384" t="s">
-        <v>395</v>
-      </c>
-      <c r="D384" t="s">
-        <v>252</v>
-      </c>
-      <c r="E384" t="s">
-        <v>236</v>
-      </c>
-      <c r="F384" t="s">
+      <c r="D393" t="s">
+        <v>254</v>
+      </c>
+      <c r="E393" t="s">
+        <v>238</v>
+      </c>
+      <c r="F393" t="s">
         <v>461</v>
       </c>
-      <c r="G384" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" s="17" t="s">
+      <c r="G393" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C385" t="s">
-        <v>287</v>
-      </c>
-      <c r="D385" t="s">
-        <v>244</v>
-      </c>
-      <c r="E385" t="s">
-        <v>236</v>
-      </c>
-      <c r="F385" t="s">
+      <c r="C394" t="s">
+        <v>397</v>
+      </c>
+      <c r="D394" t="s">
+        <v>254</v>
+      </c>
+      <c r="E394" t="s">
+        <v>238</v>
+      </c>
+      <c r="F394" t="s">
         <v>463</v>
       </c>
-      <c r="G385" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386" s="17" t="s">
+      <c r="G394" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C386" t="s">
-        <v>350</v>
-      </c>
-      <c r="D386" t="s">
-        <v>271</v>
-      </c>
-      <c r="E386" t="s">
-        <v>272</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>427</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G388" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G389" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G390" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G391" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G392" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G393" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G394" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
+        <v>289</v>
+      </c>
+      <c r="D395" t="s">
+        <v>246</v>
+      </c>
+      <c r="E395" t="s">
+        <v>238</v>
+      </c>
+      <c r="F395" t="s">
+        <v>465</v>
+      </c>
       <c r="G395" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C396" t="s">
+        <v>352</v>
+      </c>
+      <c r="D396" t="s">
+        <v>273</v>
+      </c>
+      <c r="E396" t="s">
+        <v>274</v>
+      </c>
       <c r="G396" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>429</v>
+      </c>
       <c r="G397" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G398" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G399" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G400" s="3" t="s">
         <v>3</v>
       </c>
@@ -7022,8 +7086,59 @@
         <v>3</v>
       </c>
     </row>
+    <row r="504" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G504" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G505" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G506" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G507" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G508" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G509" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G510" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G511" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G512" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G513" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7045,54 +7160,54 @@
     <row r="1" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
@@ -7100,7 +7215,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
@@ -7108,44 +7223,44 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A9137-4FB5-F346-86E0-50EBBB5EDA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E332F0-8358-F148-BBAB-95E52EFEC786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2036,7 +2036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E332F0-8358-F148-BBAB-95E52EFEC786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9B9D5-C3EE-D640-A06B-AC51D9970C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="514">
   <si>
     <t>filetags</t>
   </si>
@@ -311,12 +311,6 @@
     <t>no gap rule</t>
   </si>
   <si>
-    <t>sun_packet_id</t>
-  </si>
-  <si>
-    <t>sun_global_id</t>
-  </si>
-  <si>
     <t>moon_id</t>
   </si>
   <si>
@@ -392,9 +386,6 @@
     <t>sunjar</t>
   </si>
   <si>
-    <t>asn_mrm_id</t>
-  </si>
-  <si>
     <t>create table public.yeg_columns (</t>
   </si>
   <si>
@@ -1557,6 +1548,63 @@
   </si>
   <si>
     <t>kremnav_utg_box</t>
+  </si>
+  <si>
+    <t>serial but this is a unique paradigm that starts from "1" for each specific "utg_id" that is associated</t>
+  </si>
+  <si>
+    <t>create new fields</t>
+  </si>
+  <si>
+    <t>text or number</t>
+  </si>
+  <si>
+    <t>must discuss this so we can create new rows within a packet and have higher-numbered rows automatically adjust so there is no gap</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>rel_mrm_id</t>
+  </si>
+  <si>
+    <t>ztable_display_name</t>
+  </si>
+  <si>
+    <t>ztable_size_bytes</t>
+  </si>
+  <si>
+    <t>ztable_category</t>
+  </si>
+  <si>
+    <t>ztable_group</t>
+  </si>
+  <si>
+    <t>ztable_description</t>
+  </si>
+  <si>
+    <t>ycolumn_ui_width</t>
+  </si>
+  <si>
+    <t>mrm_mappings</t>
+  </si>
+  <si>
+    <t>rackuic_mappings</t>
+  </si>
+  <si>
+    <t>ycolumn_display_name</t>
+  </si>
+  <si>
+    <t>ycolumn_description</t>
+  </si>
+  <si>
+    <t>cvalue_id</t>
+  </si>
+  <si>
+    <t>cfield_value</t>
+  </si>
+  <si>
+    <t>cval_value</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1703,6 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,11 +2081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P513"/>
+  <dimension ref="A1:P509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2054,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.2">
@@ -2472,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.2">
@@ -2497,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.2">
@@ -2510,22 +2559,22 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s">
         <v>74</v>
@@ -2533,7 +2582,7 @@
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K45" t="s">
         <v>76</v>
@@ -2541,47 +2590,47 @@
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -2589,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -2597,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -2627,52 +2676,52 @@
     </row>
     <row r="61" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2696,7 +2745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G65" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,204 +2753,250 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C70" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="9" t="s">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C71" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C72" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="D72" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
+        <v>394</v>
+      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H72" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="I72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C73" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
       <c r="G73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H73" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C74" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="G74" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H75" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G78" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G80" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G84" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G85" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G88" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G90" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="O91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="P91" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
       <c r="G92" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G93" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,109 +3022,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E97" s="2"/>
       <c r="G97" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G98" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E100" t="s">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D99" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D100" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D101" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="E101" s="2"/>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D103" s="2" t="s">
-        <v>486</v>
-      </c>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D104" s="2" t="s">
-        <v>487</v>
-      </c>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D105" s="2" t="s">
-        <v>488</v>
-      </c>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E109" s="2"/>
+      <c r="G105" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G106" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G109" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="4:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G110" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H110" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H111" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H111" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="I112" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G113" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I113" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="114" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G114" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="7:9" x14ac:dyDescent="0.2">
@@ -3037,9 +3147,6 @@
         <v>3</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I115" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3047,39 +3154,21 @@
       <c r="G116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I116" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="117" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I117" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="118" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="119" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H119" s="2" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="120" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G120" s="3" t="s">
@@ -3147,21 +3236,25 @@
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E133" s="2"/>
       <c r="G133" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E134" s="2"/>
       <c r="G134" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E135" s="2"/>
       <c r="G135" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E136" s="2"/>
       <c r="G136" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,191 +3265,253 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E138" s="2"/>
+    <row r="138" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G138" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E139" s="2"/>
-      <c r="G139" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E140" s="2"/>
-      <c r="G140" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E141" s="2"/>
+    <row r="139" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="G141" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E142" s="2"/>
       <c r="G142" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="L143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="M143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="N143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="O143" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="P143" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>329</v>
+      <c r="H142" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D145" t="s">
+        <v>234</v>
+      </c>
+      <c r="E145" t="s">
+        <v>235</v>
+      </c>
+      <c r="F145" t="s">
+        <v>236</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>234</v>
+      <c r="H145" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E146" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>328</v>
+      </c>
+      <c r="D146" t="s">
+        <v>238</v>
+      </c>
+      <c r="E146" t="s">
+        <v>235</v>
+      </c>
+      <c r="F146" t="s">
+        <v>329</v>
+      </c>
       <c r="G146" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>381</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s">
+        <v>286</v>
+      </c>
+      <c r="D147" t="s">
+        <v>238</v>
+      </c>
+      <c r="E147" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" t="s">
+        <v>330</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>382</v>
+      <c r="H147" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>164</v>
+        <v>133</v>
+      </c>
+      <c r="C148" t="s">
+        <v>288</v>
+      </c>
+      <c r="D148" t="s">
+        <v>278</v>
+      </c>
+      <c r="E148" t="s">
+        <v>246</v>
+      </c>
+      <c r="F148" t="s">
+        <v>331</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>330</v>
+        <v>164</v>
+      </c>
+      <c r="C149" t="s">
+        <v>332</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E149" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F149" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="E150" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F150" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C151" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E151" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F151" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>3</v>
@@ -3364,19 +3519,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="D152" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F152" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>3</v>
@@ -3384,79 +3539,88 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C153" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D153" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" t="s">
         <v>246</v>
       </c>
-      <c r="E153" t="s">
-        <v>249</v>
-      </c>
       <c r="F153" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H153" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C154" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E154" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F154" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D155" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E155" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F155" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C156" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D156" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="E156" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F156" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3628,19 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D157" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F157" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>3</v>
@@ -3484,19 +3648,19 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D158" t="s">
+        <v>270</v>
+      </c>
+      <c r="E158" t="s">
         <v>246</v>
       </c>
-      <c r="E158" t="s">
-        <v>249</v>
-      </c>
       <c r="F158" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>3</v>
@@ -3504,19 +3668,19 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C159" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D159" t="s">
+        <v>251</v>
+      </c>
+      <c r="E159" t="s">
         <v>246</v>
       </c>
-      <c r="E159" t="s">
-        <v>249</v>
-      </c>
       <c r="F159" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>3</v>
@@ -3524,19 +3688,19 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C160" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E160" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F160" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>3</v>
@@ -3544,19 +3708,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D161" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F161" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>3</v>
@@ -3564,19 +3728,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C162" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D162" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F162" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>3</v>
@@ -3584,19 +3748,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D163" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E163" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F163" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>3</v>
@@ -3604,19 +3768,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C164" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E164" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F164" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>3</v>
@@ -3624,19 +3788,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D165" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E165" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F165" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>3</v>
@@ -3644,19 +3808,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D166" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E166" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F166" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>3</v>
@@ -3664,19 +3828,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C167" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D167" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E167" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F167" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>3</v>
@@ -3684,19 +3848,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D168" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E168" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F168" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>3</v>
@@ -3704,19 +3868,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C169" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E169" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F169" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>3</v>
@@ -3724,19 +3888,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C170" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="E170" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F170" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>3</v>
@@ -3744,19 +3908,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="D171" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="E171" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F171" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>3</v>
@@ -3764,19 +3928,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C172" t="s">
+        <v>372</v>
+      </c>
+      <c r="D172" t="s">
+        <v>319</v>
+      </c>
+      <c r="E172" t="s">
         <v>373</v>
       </c>
-      <c r="D172" t="s">
-        <v>256</v>
-      </c>
-      <c r="E172" t="s">
-        <v>249</v>
-      </c>
       <c r="F172" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>3</v>
@@ -3784,19 +3948,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C173" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="D173" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E173" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="F173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>3</v>
@@ -3804,87 +3968,35 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C174" t="s">
-        <v>90</v>
-      </c>
-      <c r="D174" t="s">
-        <v>305</v>
-      </c>
-      <c r="E174" t="s">
-        <v>249</v>
-      </c>
-      <c r="F174" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C175" t="s">
-        <v>91</v>
-      </c>
-      <c r="D175" t="s">
-        <v>305</v>
-      </c>
-      <c r="E175" t="s">
-        <v>249</v>
-      </c>
-      <c r="F175" t="s">
-        <v>320</v>
-      </c>
+      <c r="A175" s="2"/>
       <c r="G175" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C176" t="s">
-        <v>375</v>
-      </c>
-      <c r="D176" t="s">
-        <v>322</v>
-      </c>
-      <c r="E176" t="s">
-        <v>376</v>
-      </c>
-      <c r="F176" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C177" t="s">
-        <v>377</v>
-      </c>
-      <c r="D177" t="s">
-        <v>322</v>
-      </c>
-      <c r="E177" t="s">
-        <v>378</v>
-      </c>
-      <c r="F177" t="s">
-        <v>324</v>
-      </c>
+      <c r="A177" s="2"/>
       <c r="G177" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>3</v>
@@ -3898,7 +4010,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>3</v>
@@ -3912,64 +4024,56 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G182" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="2"/>
       <c r="G183" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="2"/>
+      <c r="E185" s="2"/>
       <c r="G185" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="E186" s="2"/>
       <c r="G186" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="G187" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="G188" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E189" s="2"/>
       <c r="G189" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E190" s="2"/>
       <c r="G190" s="3" t="s">
         <v>3</v>
       </c>
@@ -3979,120 +4083,189 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G193" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G194" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="L193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="O193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="P193" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="G195" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H195" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A196" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="G196" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
+      <c r="H196" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>107</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>108</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D199" t="s">
+        <v>234</v>
+      </c>
+      <c r="E199" t="s">
         <v>235</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="F199" t="s">
+        <v>236</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>109</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D200" t="s">
+        <v>238</v>
+      </c>
+      <c r="E200" t="s">
         <v>235</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="F200" t="s">
+        <v>239</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D201" t="s">
+        <v>238</v>
+      </c>
+      <c r="E201" t="s">
         <v>235</v>
       </c>
-      <c r="D197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="M197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="N197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="O197" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="P197" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G198" s="3"/>
-    </row>
-    <row r="199" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A200" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H200" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>381</v>
+      <c r="F201" t="s">
+        <v>241</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>382</v>
+      <c r="H201" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C202" t="s">
+        <v>242</v>
+      </c>
+      <c r="D202" t="s">
+        <v>243</v>
+      </c>
+      <c r="E202" t="s">
+        <v>235</v>
+      </c>
+      <c r="F202" t="s">
+        <v>244</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>3</v>
@@ -4100,88 +4273,83 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>111</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>236</v>
+        <v>112</v>
+      </c>
+      <c r="C203" t="s">
+        <v>245</v>
       </c>
       <c r="D203" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E203" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F203" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H203" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>112</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>240</v>
+        <v>113</v>
+      </c>
+      <c r="C204" t="s">
+        <v>248</v>
       </c>
       <c r="D204" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E204" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F204" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H204" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>113</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>243</v>
+        <v>114</v>
+      </c>
+      <c r="C205" t="s">
+        <v>250</v>
       </c>
       <c r="D205" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E205" t="s">
-        <v>238</v>
-      </c>
-      <c r="F205" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F205" t="e" cm="1">
+        <f t="array" ref="F205">-- For UI table display</f>
+        <v>#NAME?</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C206" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D206" t="s">
+        <v>253</v>
+      </c>
+      <c r="E206" t="s">
         <v>246</v>
       </c>
-      <c r="E206" t="s">
-        <v>238</v>
-      </c>
       <c r="F206" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>3</v>
@@ -4189,19 +4357,19 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C207" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D207" t="s">
+        <v>253</v>
+      </c>
+      <c r="E207" t="s">
         <v>246</v>
       </c>
-      <c r="E207" t="s">
-        <v>249</v>
-      </c>
       <c r="F207" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>3</v>
@@ -4209,360 +4377,371 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C208" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D208" t="s">
+        <v>258</v>
+      </c>
+      <c r="E208" t="s">
         <v>246</v>
       </c>
-      <c r="E208" t="s">
-        <v>249</v>
-      </c>
       <c r="F208" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C209" t="s">
+        <v>260</v>
+      </c>
+      <c r="D209" t="s">
+        <v>258</v>
+      </c>
+      <c r="E209" t="s">
+        <v>246</v>
+      </c>
+      <c r="F209" t="s">
+        <v>261</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H209" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D210" t="s">
         <v>253</v>
       </c>
-      <c r="D209" t="s">
-        <v>254</v>
-      </c>
-      <c r="E209" t="s">
-        <v>249</v>
-      </c>
-      <c r="F209" t="e" cm="1">
-        <f t="array" ref="F209">-- For UI table display</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>118</v>
-      </c>
-      <c r="C210" t="s">
-        <v>255</v>
-      </c>
-      <c r="D210" t="s">
-        <v>256</v>
-      </c>
       <c r="E210" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F210" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C211" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D211" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E211" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F211" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C212" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D212" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E212" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F212" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C213" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D213" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E213" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F213" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C214" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D214" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E214" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F214" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C215" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D215" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E215" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F215" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C216" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D216" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E216" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F216" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C217" t="s">
+        <v>275</v>
+      </c>
+      <c r="D217" t="s">
         <v>270</v>
       </c>
-      <c r="D217" t="s">
-        <v>256</v>
-      </c>
       <c r="E217" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F217" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C218" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D218" t="s">
+        <v>270</v>
+      </c>
+      <c r="E218" t="s">
+        <v>246</v>
+      </c>
+      <c r="F218" t="s">
         <v>273</v>
       </c>
-      <c r="E218" t="s">
-        <v>249</v>
-      </c>
-      <c r="F218" t="s">
-        <v>274</v>
-      </c>
       <c r="G218" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C219" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D219" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E219" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F219" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C220" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D220" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="E220" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F220" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C221" t="s">
+        <v>282</v>
+      </c>
+      <c r="D221" t="s">
+        <v>238</v>
+      </c>
+      <c r="E221" t="s">
+        <v>246</v>
+      </c>
+      <c r="F221" t="s">
+        <v>283</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>131</v>
+      </c>
+      <c r="C222" t="s">
+        <v>284</v>
+      </c>
+      <c r="D222" t="s">
+        <v>238</v>
+      </c>
+      <c r="E222" t="s">
+        <v>246</v>
+      </c>
+      <c r="F222" t="s">
+        <v>285</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>132</v>
+      </c>
+      <c r="C223" t="s">
+        <v>286</v>
+      </c>
+      <c r="D223" t="s">
+        <v>238</v>
+      </c>
+      <c r="E223" t="s">
+        <v>246</v>
+      </c>
+      <c r="F223" t="s">
+        <v>287</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H223" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>133</v>
+      </c>
+      <c r="C224" t="s">
+        <v>288</v>
+      </c>
+      <c r="D224" t="s">
         <v>278</v>
       </c>
-      <c r="D221" t="s">
-        <v>273</v>
-      </c>
-      <c r="E221" t="s">
-        <v>249</v>
-      </c>
-      <c r="F221" t="s">
-        <v>276</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>130</v>
-      </c>
-      <c r="C222" t="s">
-        <v>279</v>
-      </c>
-      <c r="D222" t="s">
-        <v>273</v>
-      </c>
-      <c r="E222" t="s">
-        <v>249</v>
-      </c>
-      <c r="F222" t="s">
-        <v>276</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>131</v>
-      </c>
-      <c r="C223" t="s">
-        <v>280</v>
-      </c>
-      <c r="D223" t="s">
-        <v>281</v>
-      </c>
-      <c r="E223" t="s">
-        <v>249</v>
-      </c>
-      <c r="F223" t="s">
-        <v>282</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>132</v>
-      </c>
-      <c r="C224" t="s">
-        <v>283</v>
-      </c>
-      <c r="D224" t="s">
-        <v>241</v>
-      </c>
       <c r="E224" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F224" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H224" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C225" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D225" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E225" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F225" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>3</v>
@@ -4570,19 +4749,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C226" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D226" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E226" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F226" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>3</v>
@@ -4590,19 +4769,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C227" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D227" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="E227" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F227" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>3</v>
@@ -4610,19 +4789,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C228" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D228" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E228" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F228" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>3</v>
@@ -4630,19 +4809,19 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C229" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D229" t="s">
+        <v>270</v>
+      </c>
+      <c r="E229" t="s">
         <v>246</v>
       </c>
-      <c r="E229" t="s">
-        <v>249</v>
-      </c>
       <c r="F229" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>3</v>
@@ -4650,19 +4829,19 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C230" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E230" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F230" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>3</v>
@@ -4670,19 +4849,19 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C231" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D231" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E231" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F231" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>3</v>
@@ -4690,19 +4869,19 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C232" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D232" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="E232" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F232" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>3</v>
@@ -4710,19 +4889,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C233" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D233" t="s">
+        <v>270</v>
+      </c>
+      <c r="E233" t="s">
+        <v>246</v>
+      </c>
+      <c r="F233" t="s">
         <v>273</v>
-      </c>
-      <c r="E233" t="s">
-        <v>249</v>
-      </c>
-      <c r="F233" t="s">
-        <v>274</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>3</v>
@@ -4730,19 +4909,19 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C234" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D234" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E234" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F234" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>3</v>
@@ -4750,19 +4929,19 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C235" t="s">
+        <v>307</v>
+      </c>
+      <c r="D235" t="s">
         <v>302</v>
       </c>
-      <c r="D235" t="s">
-        <v>256</v>
-      </c>
       <c r="E235" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F235" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>3</v>
@@ -4770,19 +4949,19 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C236" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D236" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="E236" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F236" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>3</v>
@@ -4790,19 +4969,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C237" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D237" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E237" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F237" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>3</v>
@@ -4810,19 +4989,19 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C238" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D238" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E238" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F238" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>3</v>
@@ -4830,19 +5009,19 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C239" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D239" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="E239" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F239" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>3</v>
@@ -4850,19 +5029,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C240" t="s">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="D240" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="E240" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F240" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>3</v>
@@ -4870,19 +5049,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C241" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="D241" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="E241" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F241" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>3</v>
@@ -4890,19 +5069,19 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C242" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D242" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E242" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="F242" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>3</v>
@@ -4910,19 +5089,19 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C243" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D243" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E243" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="F243" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>3</v>
@@ -4930,19 +5109,19 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C244" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="D244" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E244" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="F244" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>3</v>
@@ -4950,40 +5129,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>153</v>
-      </c>
-      <c r="C245" t="s">
-        <v>91</v>
-      </c>
-      <c r="D245" t="s">
-        <v>305</v>
-      </c>
-      <c r="E245" t="s">
-        <v>249</v>
-      </c>
-      <c r="F245" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>154</v>
-      </c>
-      <c r="C246" t="s">
-        <v>321</v>
-      </c>
-      <c r="D246" t="s">
-        <v>322</v>
-      </c>
-      <c r="E246" t="s">
-        <v>323</v>
-      </c>
-      <c r="F246" t="s">
-        <v>324</v>
-      </c>
       <c r="G246" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,45 +5144,18 @@
       <c r="A247" t="s">
         <v>155</v>
       </c>
-      <c r="C247" t="s">
-        <v>325</v>
-      </c>
-      <c r="D247" t="s">
-        <v>322</v>
-      </c>
-      <c r="E247" t="s">
-        <v>326</v>
-      </c>
-      <c r="F247" t="s">
-        <v>324</v>
-      </c>
       <c r="G247" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>156</v>
-      </c>
-      <c r="C248" t="s">
-        <v>327</v>
-      </c>
-      <c r="D248" t="s">
-        <v>322</v>
-      </c>
-      <c r="E248" t="s">
-        <v>328</v>
-      </c>
-      <c r="F248" t="s">
-        <v>324</v>
-      </c>
       <c r="G248" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>3</v>
@@ -5043,7 +5168,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>3</v>
@@ -5056,13 +5181,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>158</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>159</v>
       </c>
-      <c r="G253" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G254" s="3" t="s">
         <v>3</v>
       </c>
@@ -5080,114 +5208,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>161</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>162</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>163</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G260" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
+    <row r="258" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="L259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="M259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="N259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="O259" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="P259" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A262" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G263" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>191</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>192</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="H263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="J263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="K263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="L263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="M263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="N263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="O263" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="P263" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="H266" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>193</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H266" s="16"/>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>194</v>
+      </c>
       <c r="G267" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H267" s="16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>3</v>
@@ -5195,38 +5333,31 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H269" s="16" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H270" s="16"/>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H271" s="16" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>3</v>
@@ -5234,7 +5365,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>3</v>
@@ -5242,15 +5373,18 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H274" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>3</v>
@@ -5258,7 +5392,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>3</v>
@@ -5266,7 +5400,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>3</v>
@@ -5274,18 +5408,15 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H278" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>3</v>
@@ -5293,7 +5424,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>3</v>
@@ -5301,71 +5432,71 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>204</v>
+      <c r="A282" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>205</v>
+      <c r="A283" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>206</v>
+      <c r="A284" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>207</v>
+      <c r="A285" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="16" t="s">
-        <v>208</v>
+      <c r="A286" t="s">
+        <v>209</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="16" t="s">
-        <v>209</v>
+      <c r="A287" t="s">
+        <v>210</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="16" t="s">
-        <v>210</v>
+      <c r="A288" t="s">
+        <v>211</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="16" t="s">
-        <v>211</v>
+      <c r="A289" t="s">
+        <v>212</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>3</v>
@@ -5373,7 +5504,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>3</v>
@@ -5381,7 +5512,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>3</v>
@@ -5389,7 +5520,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>3</v>
@@ -5397,7 +5528,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>3</v>
@@ -5405,7 +5536,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>3</v>
@@ -5413,7 +5544,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>3</v>
@@ -5421,7 +5552,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>3</v>
@@ -5429,7 +5560,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>3</v>
@@ -5437,7 +5568,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>3</v>
@@ -5445,39 +5576,33 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>222</v>
-      </c>
       <c r="G300" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>224</v>
-      </c>
       <c r="G302" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>3</v>
@@ -5490,7 +5615,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>3</v>
@@ -5503,7 +5628,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>3</v>
@@ -5516,7 +5641,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>3</v>
@@ -5529,20 +5654,23 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>227</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
         <v>228</v>
       </c>
-      <c r="G311" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G312" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>3</v>
@@ -5554,25 +5682,16 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>230</v>
-      </c>
       <c r="G315" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>231</v>
-      </c>
       <c r="G316" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>163</v>
-      </c>
       <c r="G317" s="3" t="s">
         <v>3</v>
       </c>
@@ -5592,360 +5711,411 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G321" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G322" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G323" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G324" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G324" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G325" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C326" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="G326" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G327" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G328" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G328" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G329" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C330" s="6" t="s">
-        <v>467</v>
-      </c>
+    <row r="330" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G330" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G331" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G332" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G333" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G334" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G335" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G336" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O337" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P337" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E340" s="20" t="s">
-        <v>101</v>
+    <row r="332" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G332" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O333" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P333" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E336" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H336" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E337" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>381</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>382</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C340" t="s">
+        <v>388</v>
+      </c>
+      <c r="D340" t="s">
+        <v>234</v>
+      </c>
+      <c r="E340" t="s">
+        <v>389</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H340" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E341" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>384</v>
+      <c r="H340" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C341" t="s">
+        <v>391</v>
+      </c>
+      <c r="D341" t="s">
+        <v>253</v>
+      </c>
+      <c r="E341" t="s">
+        <v>392</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C342" t="s">
+        <v>394</v>
+      </c>
+      <c r="D342" t="s">
+        <v>251</v>
+      </c>
+      <c r="E342" t="s">
+        <v>235</v>
+      </c>
+      <c r="F342" t="s">
+        <v>395</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>385</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>389</v>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C343" t="s">
+        <v>397</v>
+      </c>
+      <c r="D343" t="s">
+        <v>243</v>
+      </c>
+      <c r="E343" t="s">
+        <v>235</v>
+      </c>
+      <c r="F343" t="s">
+        <v>398</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H343" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C344" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D344" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="E344" t="s">
-        <v>392</v>
+        <v>235</v>
+      </c>
+      <c r="F344" t="s">
+        <v>402</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H344" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C345" t="s">
+        <v>404</v>
+      </c>
+      <c r="D345" t="s">
+        <v>251</v>
+      </c>
+      <c r="E345" t="s">
+        <v>235</v>
+      </c>
+      <c r="F345" t="s">
+        <v>405</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H345" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A345" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C345" t="s">
-        <v>394</v>
-      </c>
-      <c r="D345" t="s">
-        <v>256</v>
-      </c>
-      <c r="E345" t="s">
-        <v>395</v>
-      </c>
-      <c r="G345" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C346" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D346" t="s">
-        <v>254</v>
-      </c>
-      <c r="E346" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="F346" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H346" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C347" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D347" t="s">
-        <v>246</v>
-      </c>
-      <c r="E347" t="s">
-        <v>238</v>
-      </c>
-      <c r="F347" t="s">
-        <v>401</v>
+        <v>278</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H347" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C348" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D348" t="s">
-        <v>404</v>
+        <v>270</v>
       </c>
       <c r="E348" t="s">
-        <v>238</v>
-      </c>
-      <c r="F348" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H348" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C349" t="s">
-        <v>407</v>
+        <v>294</v>
       </c>
       <c r="D349" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E349" t="s">
-        <v>238</v>
-      </c>
-      <c r="F349" t="s">
-        <v>408</v>
+        <v>271</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H349" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C350" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D350" t="s">
-        <v>261</v>
-      </c>
-      <c r="F350" t="s">
-        <v>411</v>
+        <v>253</v>
+      </c>
+      <c r="E350" t="s">
+        <v>310</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H350" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C351" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D351" t="s">
-        <v>281</v>
+        <v>253</v>
+      </c>
+      <c r="E351" t="s">
+        <v>418</v>
+      </c>
+      <c r="F351" t="s">
+        <v>419</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C352" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="D352" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E352" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>3</v>
@@ -5953,16 +6123,16 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C353" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="D353" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="E353" t="s">
-        <v>274</v>
+        <v>423</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>3</v>
@@ -5970,603 +6140,564 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="14" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C354" t="s">
-        <v>418</v>
+        <v>89</v>
       </c>
       <c r="D354" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="E354" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A355" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C355" t="s">
-        <v>420</v>
-      </c>
-      <c r="D355" t="s">
-        <v>256</v>
-      </c>
-      <c r="E355" t="s">
-        <v>421</v>
-      </c>
-      <c r="F355" t="s">
-        <v>422</v>
+      <c r="A355" t="s">
+        <v>425</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A356" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C356" t="s">
-        <v>352</v>
-      </c>
-      <c r="D356" t="s">
-        <v>273</v>
-      </c>
-      <c r="E356" t="s">
-        <v>274</v>
+      <c r="A356" t="s">
+        <v>426</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A357" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C357" t="s">
-        <v>90</v>
-      </c>
-      <c r="D357" t="s">
-        <v>425</v>
-      </c>
-      <c r="E357" t="s">
-        <v>426</v>
-      </c>
-      <c r="G357" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A358" s="14" t="s">
+    <row r="357" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O358" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P358" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E361" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E362" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C358" t="s">
-        <v>91</v>
-      </c>
-      <c r="D358" t="s">
-        <v>425</v>
-      </c>
-      <c r="E358" t="s">
-        <v>426</v>
-      </c>
-      <c r="G358" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+      <c r="G362" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>428</v>
       </c>
-      <c r="G359" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="G363" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>429</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O362" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P362" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C364" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E365" s="20" t="s">
-        <v>102</v>
+      <c r="A365" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C365" t="s">
+        <v>431</v>
+      </c>
+      <c r="D365" t="s">
+        <v>234</v>
+      </c>
+      <c r="E365" t="s">
+        <v>389</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E366" s="1" t="s">
-        <v>430</v>
+      <c r="H365" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A366" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C366" t="s">
+        <v>388</v>
+      </c>
+      <c r="D366" t="s">
+        <v>253</v>
+      </c>
+      <c r="E366" t="s">
+        <v>433</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H366" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>431</v>
+      <c r="A367" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C367" t="s">
+        <v>435</v>
+      </c>
+      <c r="D367" t="s">
+        <v>253</v>
+      </c>
+      <c r="E367" t="s">
+        <v>235</v>
+      </c>
+      <c r="F367" t="s">
+        <v>436</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>432</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>389</v>
+      <c r="A368" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C368" t="s">
+        <v>438</v>
+      </c>
+      <c r="D368" t="s">
+        <v>251</v>
+      </c>
+      <c r="E368" t="s">
+        <v>235</v>
+      </c>
+      <c r="F368" t="s">
+        <v>439</v>
       </c>
       <c r="G368" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A369" s="10" t="s">
-        <v>433</v>
+      <c r="A369" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="C369" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D369" t="s">
-        <v>237</v>
-      </c>
-      <c r="E369" t="s">
-        <v>392</v>
+        <v>278</v>
+      </c>
+      <c r="F369" t="s">
+        <v>442</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H369" t="s">
+        <v>512</v>
+      </c>
+      <c r="I369" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C370" t="s">
-        <v>391</v>
+        <v>88</v>
       </c>
       <c r="D370" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="E370" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A371" s="15" t="s">
-        <v>437</v>
+      <c r="A371" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="C371" t="s">
-        <v>438</v>
+        <v>89</v>
       </c>
       <c r="D371" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="E371" t="s">
-        <v>238</v>
-      </c>
-      <c r="F371" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A372" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C372" t="s">
-        <v>441</v>
-      </c>
-      <c r="D372" t="s">
-        <v>254</v>
-      </c>
-      <c r="E372" t="s">
-        <v>238</v>
-      </c>
-      <c r="F372" t="s">
-        <v>442</v>
+      <c r="A372" t="s">
+        <v>443</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A373" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="C373" t="s">
+      <c r="A373" t="s">
+        <v>426</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G374" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="G380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="K380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="L380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="M380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="O380" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="P380" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E382" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H382" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E383" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D373" t="s">
-        <v>281</v>
-      </c>
-      <c r="F373" t="s">
+      <c r="G383" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>445</v>
       </c>
-      <c r="G373" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A374" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C374" t="s">
-        <v>90</v>
-      </c>
-      <c r="D374" t="s">
-        <v>425</v>
-      </c>
-      <c r="E374" t="s">
+      <c r="G384" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>446</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C386" t="s">
+        <v>448</v>
+      </c>
+      <c r="D386" t="s">
+        <v>234</v>
+      </c>
+      <c r="E386" t="s">
+        <v>389</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C387" t="s">
+        <v>450</v>
+      </c>
+      <c r="D387" t="s">
+        <v>251</v>
+      </c>
+      <c r="E387" t="s">
+        <v>451</v>
+      </c>
+      <c r="F387" t="s">
+        <v>452</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C388" t="s">
+        <v>454</v>
+      </c>
+      <c r="D388" t="s">
+        <v>251</v>
+      </c>
+      <c r="E388" t="s">
+        <v>235</v>
+      </c>
+      <c r="F388" t="s">
+        <v>455</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C389" t="s">
+        <v>457</v>
+      </c>
+      <c r="D389" t="s">
+        <v>251</v>
+      </c>
+      <c r="E389" t="s">
+        <v>235</v>
+      </c>
+      <c r="F389" t="s">
+        <v>458</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C390" t="s">
+        <v>394</v>
+      </c>
+      <c r="D390" t="s">
+        <v>251</v>
+      </c>
+      <c r="E390" t="s">
+        <v>235</v>
+      </c>
+      <c r="F390" t="s">
+        <v>460</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C391" t="s">
+        <v>286</v>
+      </c>
+      <c r="D391" t="s">
+        <v>243</v>
+      </c>
+      <c r="E391" t="s">
+        <v>235</v>
+      </c>
+      <c r="F391" t="s">
+        <v>462</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="C392" t="s">
+        <v>349</v>
+      </c>
+      <c r="D392" t="s">
+        <v>270</v>
+      </c>
+      <c r="E392" t="s">
+        <v>271</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>426</v>
       </c>
-      <c r="G374" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A375" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C375" t="s">
-        <v>91</v>
-      </c>
-      <c r="D375" t="s">
-        <v>425</v>
-      </c>
-      <c r="E375" t="s">
-        <v>426</v>
-      </c>
-      <c r="G375" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>446</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>429</v>
-      </c>
-      <c r="G377" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G378" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="E384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="F384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="G384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="I384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="J384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="K384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="L384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="M384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="N384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="O384" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="P384" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E386" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H386" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E387" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>448</v>
-      </c>
-      <c r="G388" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>449</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E389" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F389" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G389" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C390" t="s">
-        <v>451</v>
-      </c>
-      <c r="D390" t="s">
-        <v>237</v>
-      </c>
-      <c r="E390" t="s">
-        <v>392</v>
-      </c>
-      <c r="G390" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C391" t="s">
-        <v>453</v>
-      </c>
-      <c r="D391" t="s">
-        <v>254</v>
-      </c>
-      <c r="E391" t="s">
-        <v>454</v>
-      </c>
-      <c r="F391" t="s">
-        <v>455</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A392" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C392" t="s">
-        <v>457</v>
-      </c>
-      <c r="D392" t="s">
-        <v>254</v>
-      </c>
-      <c r="E392" t="s">
-        <v>238</v>
-      </c>
-      <c r="F392" t="s">
-        <v>458</v>
-      </c>
-      <c r="G392" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A393" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="C393" t="s">
-        <v>460</v>
-      </c>
-      <c r="D393" t="s">
-        <v>254</v>
-      </c>
-      <c r="E393" t="s">
-        <v>238</v>
-      </c>
-      <c r="F393" t="s">
-        <v>461</v>
-      </c>
       <c r="G393" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="C394" t="s">
-        <v>397</v>
-      </c>
-      <c r="D394" t="s">
-        <v>254</v>
-      </c>
-      <c r="E394" t="s">
-        <v>238</v>
-      </c>
-      <c r="F394" t="s">
-        <v>463</v>
-      </c>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G394" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A395" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="C395" t="s">
-        <v>289</v>
-      </c>
-      <c r="D395" t="s">
-        <v>246</v>
-      </c>
-      <c r="E395" t="s">
-        <v>238</v>
-      </c>
-      <c r="F395" t="s">
-        <v>465</v>
-      </c>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G395" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A396" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C396" t="s">
-        <v>352</v>
-      </c>
-      <c r="D396" t="s">
-        <v>273</v>
-      </c>
-      <c r="E396" t="s">
-        <v>274</v>
-      </c>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G396" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>429</v>
-      </c>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G397" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G398" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G399" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G400" s="3" t="s">
         <v>3</v>
       </c>
@@ -7113,26 +7244,6 @@
     </row>
     <row r="509" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G509" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="510" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G510" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="511" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G511" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="512" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G512" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="513" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G513" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7160,7 +7271,7 @@
     <row r="1" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
@@ -7170,7 +7281,7 @@
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -7178,36 +7289,36 @@
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
@@ -7215,7 +7326,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
@@ -7234,33 +7345,33 @@
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9B9D5-C3EE-D640-A06B-AC51D9970C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2504B-C997-A24A-A474-5D0B5E468E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2084,8 +2084,8 @@
   <dimension ref="A1:P509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2504B-C997-A24A-A474-5D0B5E468E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13137996-33CE-E04F-A22F-95338A47E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="516">
   <si>
     <t>filetags</t>
   </si>
@@ -1475,9 +1475,6 @@
     <t>cf_entity_types</t>
   </si>
   <si>
-    <t>rack_width</t>
-  </si>
-  <si>
     <t>rcolumn_id</t>
   </si>
   <si>
@@ -1605,6 +1602,15 @@
   </si>
   <si>
     <t>cval_value</t>
+  </si>
+  <si>
+    <t>rcolumn_width</t>
+  </si>
+  <si>
+    <t>old db field names</t>
+  </si>
+  <si>
+    <t>new db field names</t>
   </si>
 </sst>
 </file>
@@ -2084,8 +2090,8 @@
   <dimension ref="A1:P509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K201" sqref="K201"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.2">
@@ -2546,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.2">
@@ -2559,17 +2565,17 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.2">
@@ -2582,7 +2588,7 @@
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K45" t="s">
         <v>76</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -2638,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -2646,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -2775,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
@@ -2803,7 +2809,7 @@
         <v>91</v>
       </c>
       <c r="I71" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
@@ -2828,10 +2834,10 @@
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F73" t="s">
         <v>77</v>
@@ -2843,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="I73" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
@@ -2892,12 +2898,12 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -3033,19 +3039,19 @@
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D99" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D100" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D101" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E101" s="2"/>
     </row>
@@ -3385,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3408,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -3454,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -3557,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3580,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -3603,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -4202,7 +4208,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
@@ -4225,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
@@ -4248,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
@@ -4332,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
@@ -4395,7 +4401,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -4418,7 +4424,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -4701,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -4724,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -5280,8 +5286,14 @@
       </c>
     </row>
     <row r="263" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="G263" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.2">
@@ -5300,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="H265" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.2">
@@ -5320,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="H267" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
@@ -5379,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -5890,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -5950,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -5973,7 +5985,7 @@
         <v>3</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -5996,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -6016,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -6285,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="H365" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.2">
@@ -6305,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="H366" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.2">
@@ -6365,10 +6377,10 @@
         <v>3</v>
       </c>
       <c r="H369" t="s">
+        <v>511</v>
+      </c>
+      <c r="I369" t="s">
         <v>512</v>
-      </c>
-      <c r="I369" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13137996-33CE-E04F-A22F-95338A47E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25F681-3D9A-2F4C-9610-19051CB5A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,8 +2090,8 @@
   <dimension ref="A1:P509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D298" sqref="D298"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25F681-3D9A-2F4C-9610-19051CB5A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03417473-EC63-3048-8136-26EA3E0B0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="524">
   <si>
     <t>filetags</t>
   </si>
@@ -1611,6 +1611,30 @@
   </si>
   <si>
     <t>new db field names</t>
+  </si>
+  <si>
+    <t>denbu_columns</t>
+  </si>
+  <si>
+    <t>for harpoon</t>
+  </si>
+  <si>
+    <t>in fava system:</t>
+  </si>
+  <si>
+    <t>must draw attnetion</t>
+  </si>
+  <si>
+    <t>of claude code</t>
+  </si>
+  <si>
+    <t>to these codes</t>
+  </si>
+  <si>
+    <t>and column ids, display order, etc.:</t>
+  </si>
+  <si>
+    <t>rcolumn_display_name</t>
   </si>
 </sst>
 </file>
@@ -2087,11 +2111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P509"/>
+  <dimension ref="A1:P511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2509,12 +2533,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="4:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2541,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D37" s="2" t="s">
         <v>71</v>
       </c>
@@ -2555,12 +2579,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G38" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G39" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,17 +2592,40 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
       <c r="J40" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
       <c r="J42" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
       <c r="J44" t="s">
         <v>106</v>
       </c>
@@ -2586,7 +2633,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="J45" t="s">
         <v>485</v>
       </c>
@@ -2594,7 +2646,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="J46" t="s">
         <v>105</v>
       </c>
@@ -2602,75 +2659,115 @@
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="J47" t="s">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C47" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C49" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="J49" t="s">
         <v>103</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K49" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="J48" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="J50" t="s">
         <v>104</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K50" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J49" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C51" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="J51" t="s">
         <v>101</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J50" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C52" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="J52" t="s">
         <v>102</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C53" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="J54" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="G56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G56" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,54 +2777,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>465</v>
+    <row r="61" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2735,240 +2787,240 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G65" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="21" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C70" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C71" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" t="s">
-        <v>394</v>
+        <v>90</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>394</v>
+        <v>90</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="F73" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" t="s">
+        <v>394</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="I74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C75" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C76" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="9" t="s">
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C75" s="2" t="s">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="G77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G77" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H79" t="s">
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="H80" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G84" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G85" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G86" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="N87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>466</v>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G87" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2976,89 +3028,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G90" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
+    <row r="91" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G92" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
         <v>95</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E92" t="s">
+      <c r="G93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G93" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E95" t="s">
+      <c r="G95" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G96" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
         <v>97</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E96" t="s">
+      <c r="G97" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
         <v>98</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E97" s="2"/>
-      <c r="G97" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E98" s="2"/>
+      <c r="G98" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D99" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="E99" s="2"/>
+      <c r="G99" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D100" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D101" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D102" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D103" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
@@ -3066,67 +3167,51 @@
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E105" s="2"/>
-      <c r="G105" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G106" s="3" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="106" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E107" s="2"/>
       <c r="G107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G108" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G109" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H109" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G110" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I111" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I112" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="7:9" x14ac:dyDescent="0.2">
@@ -3134,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I113" t="s">
         <v>87</v>
@@ -3145,7 +3230,10 @@
         <v>3</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="I114" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="7:9" x14ac:dyDescent="0.2">
@@ -3153,18 +3241,27 @@
         <v>3</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="I115" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G116" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H116" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="117" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G117" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H117" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="118" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G118" s="3" t="s">
@@ -3242,13 +3339,11 @@
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E133" s="2"/>
       <c r="G133" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E134" s="2"/>
       <c r="G134" s="3" t="s">
         <v>3</v>
       </c>
@@ -3271,253 +3366,225 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E138" s="2"/>
       <c r="G138" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E139" s="2"/>
+      <c r="G139" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G140" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="G139" s="6" t="s">
+      <c r="G141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="H139" s="6" t="s">
+      <c r="H141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="I139" s="6" t="s">
+      <c r="I141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="J139" s="6" t="s">
+      <c r="J141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="K139" s="6" t="s">
+      <c r="K141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="L139" s="6" t="s">
+      <c r="L141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="M139" s="6" t="s">
+      <c r="M141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="N139" s="6" t="s">
+      <c r="N141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="O139" s="6" t="s">
+      <c r="O141" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="P139" s="6" t="s">
+      <c r="P141" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="140" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="G142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>377</v>
-      </c>
+    <row r="142" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G142" s="3"/>
     </row>
     <row r="143" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E144" s="2"/>
       <c r="G144" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D145" t="s">
-        <v>234</v>
-      </c>
-      <c r="E145" t="s">
-        <v>235</v>
-      </c>
-      <c r="F145" t="s">
-        <v>236</v>
+      <c r="H144" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H145" s="11" t="s">
-        <v>475</v>
+      <c r="H145" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C146" t="s">
-        <v>328</v>
-      </c>
-      <c r="D146" t="s">
-        <v>238</v>
-      </c>
-      <c r="E146" t="s">
-        <v>235</v>
-      </c>
-      <c r="F146" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C147" t="s">
-        <v>286</v>
+        <v>162</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="D147" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E147" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F147" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="E148" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F148" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="D149" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E149" t="s">
         <v>246</v>
       </c>
       <c r="F149" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="D150" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="E150" t="s">
         <v>246</v>
       </c>
       <c r="F150" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E151" t="s">
         <v>246</v>
       </c>
       <c r="F151" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>3</v>
@@ -3525,19 +3592,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E152" t="s">
         <v>246</v>
       </c>
       <c r="F152" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>3</v>
@@ -3545,128 +3612,128 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D153" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="E153" t="s">
         <v>246</v>
       </c>
       <c r="F153" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H153" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D154" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="E154" t="s">
         <v>246</v>
       </c>
       <c r="F154" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H154" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D155" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="E155" t="s">
         <v>246</v>
       </c>
       <c r="F155" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C156" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D156" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E156" t="s">
         <v>246</v>
       </c>
       <c r="F156" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H156" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C157" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D157" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E157" t="s">
         <v>246</v>
       </c>
       <c r="F157" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H157" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D158" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E158" t="s">
         <v>246</v>
       </c>
       <c r="F158" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>3</v>
@@ -3674,19 +3741,19 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D159" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="E159" t="s">
         <v>246</v>
       </c>
       <c r="F159" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>3</v>
@@ -3694,19 +3761,19 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D160" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
         <v>246</v>
       </c>
       <c r="F160" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>3</v>
@@ -3714,19 +3781,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E161" t="s">
         <v>246</v>
       </c>
       <c r="F161" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>3</v>
@@ -3734,19 +3801,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E162" t="s">
         <v>246</v>
       </c>
       <c r="F162" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>3</v>
@@ -3754,10 +3821,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D163" t="s">
         <v>270</v>
@@ -3766,7 +3833,7 @@
         <v>246</v>
       </c>
       <c r="F163" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>3</v>
@@ -3774,19 +3841,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C164" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E164" t="s">
         <v>246</v>
       </c>
       <c r="F164" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>3</v>
@@ -3794,19 +3861,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D165" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E165" t="s">
         <v>246</v>
       </c>
       <c r="F165" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>3</v>
@@ -3814,19 +3881,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D166" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E166" t="s">
         <v>246</v>
       </c>
       <c r="F166" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>3</v>
@@ -3834,19 +3901,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D167" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E167" t="s">
         <v>246</v>
       </c>
       <c r="F167" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>3</v>
@@ -3854,10 +3921,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D168" t="s">
         <v>253</v>
@@ -3866,7 +3933,7 @@
         <v>246</v>
       </c>
       <c r="F168" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>3</v>
@@ -3874,19 +3941,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="D169" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E169" t="s">
         <v>246</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>3</v>
@@ -3894,19 +3961,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C170" t="s">
-        <v>88</v>
+        <v>370</v>
       </c>
       <c r="D170" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="E170" t="s">
         <v>246</v>
       </c>
       <c r="F170" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>3</v>
@@ -3914,19 +3981,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C171" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="D171" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E171" t="s">
         <v>246</v>
       </c>
       <c r="F171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>3</v>
@@ -3934,19 +4001,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C172" t="s">
-        <v>372</v>
+        <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E172" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="F172" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>3</v>
@@ -3954,19 +4021,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="D173" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E173" t="s">
-        <v>375</v>
+        <v>246</v>
       </c>
       <c r="F173" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>3</v>
@@ -3974,21 +4041,47 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="C174" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" t="s">
+        <v>319</v>
+      </c>
+      <c r="E174" t="s">
+        <v>373</v>
+      </c>
+      <c r="F174" t="s">
+        <v>321</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C175" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" t="s">
+        <v>319</v>
+      </c>
+      <c r="E175" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" t="s">
+        <v>321</v>
+      </c>
       <c r="G175" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>3</v>
@@ -4002,7 +4095,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>3</v>
@@ -4016,7 +4109,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>3</v>
@@ -4030,46 +4123,50 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="A183" s="2"/>
       <c r="G183" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E185" s="2"/>
-      <c r="G185" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E186" s="2"/>
       <c r="G186" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E187" s="2"/>
       <c r="G187" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E188" s="2"/>
       <c r="G188" s="3" t="s">
         <v>3</v>
       </c>
@@ -4089,229 +4186,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G193" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G194" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="F195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G193" s="6" t="s">
+      <c r="G195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H193" s="6" t="s">
+      <c r="H195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="I193" s="6" t="s">
+      <c r="I195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J193" s="6" t="s">
+      <c r="J195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K193" s="6" t="s">
+      <c r="K195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="L193" s="6" t="s">
+      <c r="L195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="M193" s="6" t="s">
+      <c r="M195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="N193" s="6" t="s">
+      <c r="N195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="O193" s="6" t="s">
+      <c r="O195" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="P193" s="6" t="s">
+      <c r="P195" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="11" t="s">
-        <v>232</v>
-      </c>
+    <row r="196" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G196" s="3"/>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A198" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="1" t="s">
+      <c r="G199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" s="1" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>107</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>108</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D199" t="s">
-        <v>234</v>
-      </c>
-      <c r="E199" t="s">
-        <v>235</v>
-      </c>
-      <c r="F199" t="s">
-        <v>236</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H199" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>109</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D200" t="s">
-        <v>238</v>
-      </c>
-      <c r="E200" t="s">
-        <v>235</v>
-      </c>
-      <c r="F200" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H200" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D201" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E201" t="s">
         <v>235</v>
       </c>
       <c r="F201" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>111</v>
-      </c>
-      <c r="C202" t="s">
-        <v>242</v>
+        <v>109</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="D202" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E202" t="s">
         <v>235</v>
       </c>
       <c r="F202" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H202" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>112</v>
-      </c>
-      <c r="C203" t="s">
-        <v>245</v>
+        <v>110</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D203" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E203" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F203" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C204" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D204" t="s">
         <v>243</v>
       </c>
       <c r="E204" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F204" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>3</v>
@@ -4319,43 +4386,39 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C205" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D205" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E205" t="s">
         <v>246</v>
       </c>
-      <c r="F205" t="e" cm="1">
-        <f t="array" ref="F205">-- For UI table display</f>
-        <v>#NAME?</v>
+      <c r="F205" t="s">
+        <v>247</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H205" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C206" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D206" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E206" t="s">
         <v>246</v>
       </c>
       <c r="F206" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>3</v>
@@ -4363,116 +4426,120 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C207" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D207" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E207" t="s">
         <v>246</v>
       </c>
-      <c r="F207" t="s">
-        <v>256</v>
+      <c r="F207" t="e" cm="1">
+        <f t="array" ref="F207">-- For UI table display</f>
+        <v>#NAME?</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C208" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D208" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E208" t="s">
         <v>246</v>
       </c>
       <c r="F208" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H208" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C209" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D209" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E209" t="s">
         <v>246</v>
       </c>
       <c r="F209" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H209" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C210" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D210" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E210" t="s">
         <v>246</v>
       </c>
       <c r="F210" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H210" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C211" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D211" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E211" t="s">
         <v>246</v>
       </c>
       <c r="F211" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C212" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D212" t="s">
         <v>253</v>
@@ -4481,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="F212" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>3</v>
@@ -4489,10 +4556,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D213" t="s">
         <v>253</v>
@@ -4501,7 +4568,7 @@
         <v>246</v>
       </c>
       <c r="F213" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>3</v>
@@ -4509,19 +4576,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C214" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D214" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E214" t="s">
         <v>246</v>
       </c>
       <c r="F214" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>3</v>
@@ -4529,19 +4596,19 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C215" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D215" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E215" t="s">
         <v>246</v>
       </c>
       <c r="F215" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>3</v>
@@ -4549,10 +4616,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C216" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D216" t="s">
         <v>270</v>
@@ -4561,7 +4628,7 @@
         <v>246</v>
       </c>
       <c r="F216" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>3</v>
@@ -4569,10 +4636,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C217" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D217" t="s">
         <v>270</v>
@@ -4589,10 +4656,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C218" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D218" t="s">
         <v>270</v>
@@ -4609,19 +4676,19 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C219" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D219" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E219" t="s">
         <v>246</v>
       </c>
       <c r="F219" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>3</v>
@@ -4629,19 +4696,19 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C220" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D220" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="E220" t="s">
         <v>246</v>
       </c>
       <c r="F220" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>3</v>
@@ -4649,19 +4716,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C221" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D221" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="E221" t="s">
         <v>246</v>
       </c>
       <c r="F221" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>3</v>
@@ -4669,10 +4736,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C222" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D222" t="s">
         <v>238</v>
@@ -4681,7 +4748,7 @@
         <v>246</v>
       </c>
       <c r="F222" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>3</v>
@@ -4689,10 +4756,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C223" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D223" t="s">
         <v>238</v>
@@ -4701,124 +4768,124 @@
         <v>246</v>
       </c>
       <c r="F223" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H223" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C224" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D224" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="E224" t="s">
         <v>246</v>
       </c>
       <c r="F224" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H224" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C225" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D225" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E225" t="s">
         <v>246</v>
       </c>
       <c r="F225" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C226" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D226" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="E226" t="s">
         <v>246</v>
       </c>
       <c r="F226" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C227" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D227" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E227" t="s">
         <v>246</v>
       </c>
       <c r="F227" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C228" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D228" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E228" t="s">
         <v>246</v>
       </c>
       <c r="F228" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D229" t="s">
         <v>270</v>
@@ -4833,192 +4900,192 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C230" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D230" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="E230" t="s">
         <v>246</v>
       </c>
       <c r="F230" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C231" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D231" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="E231" t="s">
         <v>246</v>
       </c>
       <c r="F231" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C232" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D232" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="E232" t="s">
         <v>246</v>
       </c>
       <c r="F232" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C233" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D233" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E233" t="s">
         <v>246</v>
       </c>
       <c r="F233" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C234" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D234" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="E234" t="s">
         <v>246</v>
       </c>
       <c r="F234" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C235" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D235" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="E235" t="s">
         <v>246</v>
       </c>
       <c r="F235" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C236" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D236" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E236" t="s">
         <v>246</v>
       </c>
       <c r="F236" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C237" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D237" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="E237" t="s">
         <v>246</v>
       </c>
       <c r="F237" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C238" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D238" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E238" t="s">
         <v>246</v>
       </c>
       <c r="F238" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D239" t="s">
         <v>258</v>
@@ -5027,27 +5094,27 @@
         <v>246</v>
       </c>
       <c r="F239" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C240" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="D240" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E240" t="s">
         <v>246</v>
       </c>
       <c r="F240" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>3</v>
@@ -5055,19 +5122,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C241" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="D241" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E241" t="s">
         <v>246</v>
       </c>
       <c r="F241" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>3</v>
@@ -5075,19 +5142,19 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C242" t="s">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="D242" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E242" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="F242" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>3</v>
@@ -5095,19 +5162,19 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C243" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="D243" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E243" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="F243" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>3</v>
@@ -5115,16 +5182,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D244" t="s">
         <v>319</v>
       </c>
       <c r="E244" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F244" t="s">
         <v>321</v>
@@ -5135,20 +5202,47 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="C245" t="s">
+        <v>322</v>
+      </c>
+      <c r="D245" t="s">
+        <v>319</v>
+      </c>
+      <c r="E245" t="s">
+        <v>323</v>
+      </c>
+      <c r="F245" t="s">
+        <v>321</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>153</v>
+      </c>
+      <c r="C246" t="s">
+        <v>324</v>
+      </c>
+      <c r="D246" t="s">
+        <v>319</v>
+      </c>
+      <c r="E246" t="s">
+        <v>325</v>
+      </c>
+      <c r="F246" t="s">
+        <v>321</v>
+      </c>
       <c r="G246" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>3</v>
@@ -5161,7 +5255,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>3</v>
@@ -5174,7 +5268,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>3</v>
@@ -5187,181 +5281,181 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>159</v>
-      </c>
       <c r="G254" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>158</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>159</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>160</v>
       </c>
-      <c r="G255" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G256" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="6" t="s">
+      <c r="G257" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G258" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D259" s="6" t="s">
+      <c r="D261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="E261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F259" s="6" t="s">
+      <c r="F261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="G259" s="6" t="s">
+      <c r="G261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="H259" s="6" t="s">
+      <c r="H261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="I259" s="6" t="s">
+      <c r="I261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="J259" s="6" t="s">
+      <c r="J261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="K259" s="6" t="s">
+      <c r="K261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="L259" s="6" t="s">
+      <c r="L261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="M259" s="6" t="s">
+      <c r="M261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="N259" s="6" t="s">
+      <c r="N261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="O259" s="6" t="s">
+      <c r="O261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="P259" s="6" t="s">
+      <c r="P261" s="6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A262" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="H262" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
+    <row r="262" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="263" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A264" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G263" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H263" s="1" t="s">
+      <c r="G265" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>191</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>192</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H265" s="16" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H266" s="16"/>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H267" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H268" s="16"/>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H269" s="16" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H270" s="16" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>3</v>
@@ -5369,7 +5463,7 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>3</v>
@@ -5377,7 +5471,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>3</v>
@@ -5385,18 +5479,15 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H274" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>3</v>
@@ -5404,15 +5495,18 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H276" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>3</v>
@@ -5420,7 +5514,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>3</v>
@@ -5428,7 +5522,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>3</v>
@@ -5436,7 +5530,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>3</v>
@@ -5444,23 +5538,23 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>202</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>203</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>204</v>
-      </c>
-      <c r="G281" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>3</v>
@@ -5468,7 +5562,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>3</v>
@@ -5476,23 +5570,23 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>209</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>210</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>3</v>
@@ -5500,7 +5594,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>3</v>
@@ -5508,7 +5602,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>3</v>
@@ -5516,7 +5610,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>3</v>
@@ -5524,7 +5618,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>3</v>
@@ -5532,7 +5626,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>3</v>
@@ -5540,7 +5634,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>3</v>
@@ -5548,7 +5642,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>3</v>
@@ -5556,7 +5650,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>3</v>
@@ -5564,7 +5658,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>3</v>
@@ -5572,7 +5666,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>3</v>
@@ -5580,7 +5674,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>3</v>
@@ -5588,20 +5682,23 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>221</v>
+      </c>
       <c r="G300" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>3</v>
@@ -5614,7 +5711,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>3</v>
@@ -5627,7 +5724,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>3</v>
@@ -5640,7 +5737,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>3</v>
@@ -5653,7 +5750,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>3</v>
@@ -5666,34 +5763,37 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>228</v>
-      </c>
       <c r="G312" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>227</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>228</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>160</v>
       </c>
-      <c r="G313" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G314" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G315" s="3" t="s">
         <v>3</v>
       </c>
@@ -5733,13 +5833,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G323" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G324" s="18" t="s">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G324" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5748,11 +5848,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C326" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G326" s="3" t="s">
+    <row r="326" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G326" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5762,6 +5859,9 @@
       </c>
     </row>
     <row r="328" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C328" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="G328" s="3" t="s">
         <v>3</v>
       </c>
@@ -5771,152 +5871,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G330" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G331" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G332" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="6" t="s">
+    <row r="332" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G332" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G333" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G334" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D333" s="6" t="s">
+      <c r="D335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E333" s="6" t="s">
+      <c r="E335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F333" s="6" t="s">
+      <c r="F335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G333" s="6" t="s">
+      <c r="G335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H333" s="6" t="s">
+      <c r="H335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I333" s="6" t="s">
+      <c r="I335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J333" s="6" t="s">
+      <c r="J335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K333" s="6" t="s">
+      <c r="K335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L333" s="6" t="s">
+      <c r="L335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M333" s="6" t="s">
+      <c r="M335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N333" s="6" t="s">
+      <c r="N335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O333" s="6" t="s">
+      <c r="O335" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="P333" s="6" t="s">
+      <c r="P335" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="334" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E336" s="20" t="s">
+    <row r="336" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E338" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G336" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H336" s="11" t="s">
+      <c r="G338" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H338" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="337" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E337" s="1" t="s">
+    <row r="339" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E339" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G337" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+      <c r="G339" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>381</v>
       </c>
-      <c r="G338" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+      <c r="G340" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>382</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C341" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="D341" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E339" s="2" t="s">
+      <c r="E341" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F339" s="2" t="s">
+      <c r="F341" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="G339" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C340" t="s">
-        <v>388</v>
-      </c>
-      <c r="D340" t="s">
-        <v>234</v>
-      </c>
-      <c r="E340" t="s">
-        <v>389</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C341" t="s">
-        <v>391</v>
-      </c>
-      <c r="D341" t="s">
-        <v>253</v>
-      </c>
-      <c r="E341" t="s">
-        <v>392</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>3</v>
@@ -5924,156 +5997,159 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C342" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D342" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E342" t="s">
-        <v>235</v>
-      </c>
-      <c r="F342" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C343" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D343" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E343" t="s">
-        <v>235</v>
-      </c>
-      <c r="F343" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H343" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C344" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D344" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="E344" t="s">
         <v>235</v>
       </c>
       <c r="F344" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H344" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C345" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D345" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E345" t="s">
         <v>235</v>
       </c>
       <c r="F345" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C346" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D346" t="s">
-        <v>258</v>
+        <v>401</v>
+      </c>
+      <c r="E346" t="s">
+        <v>235</v>
       </c>
       <c r="F346" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C347" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D347" t="s">
-        <v>278</v>
+        <v>251</v>
+      </c>
+      <c r="E347" t="s">
+        <v>235</v>
+      </c>
+      <c r="F347" t="s">
+        <v>405</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C348" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D348" t="s">
-        <v>270</v>
-      </c>
-      <c r="E348" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="F348" t="s">
+        <v>408</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C349" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="D349" t="s">
-        <v>270</v>
-      </c>
-      <c r="E349" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>3</v>
@@ -6081,16 +6157,16 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C350" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D350" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="E350" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>3</v>
@@ -6098,19 +6174,16 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C351" t="s">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="D351" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="E351" t="s">
-        <v>418</v>
-      </c>
-      <c r="F351" t="s">
-        <v>419</v>
+        <v>271</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>3</v>
@@ -6118,16 +6191,16 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C352" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="D352" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E352" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>3</v>
@@ -6135,16 +6208,19 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C353" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="D353" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="E353" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="F353" t="s">
+        <v>419</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>3</v>
@@ -6152,423 +6228,420 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C354" t="s">
+        <v>349</v>
+      </c>
+      <c r="D354" t="s">
+        <v>270</v>
+      </c>
+      <c r="E354" t="s">
+        <v>271</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A355" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C355" t="s">
+        <v>88</v>
+      </c>
+      <c r="D355" t="s">
+        <v>422</v>
+      </c>
+      <c r="E355" t="s">
+        <v>423</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A356" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C356" t="s">
         <v>89</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D356" t="s">
         <v>422</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E356" t="s">
         <v>423</v>
       </c>
-      <c r="G354" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+      <c r="G356" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>425</v>
       </c>
-      <c r="G355" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+      <c r="G357" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>426</v>
       </c>
-      <c r="G356" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="6" t="s">
+      <c r="G358" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D358" s="6" t="s">
+      <c r="D360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E358" s="6" t="s">
+      <c r="E360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F358" s="6" t="s">
+      <c r="F360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G358" s="6" t="s">
+      <c r="G360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H358" s="6" t="s">
+      <c r="H360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I358" s="6" t="s">
+      <c r="I360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J358" s="6" t="s">
+      <c r="J360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K358" s="6" t="s">
+      <c r="K360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L358" s="6" t="s">
+      <c r="L360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M358" s="6" t="s">
+      <c r="M360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N358" s="6" t="s">
+      <c r="N360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O358" s="6" t="s">
+      <c r="O360" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P358" s="6" t="s">
+      <c r="P360" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E361" s="20" t="s">
+    <row r="361" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E363" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G361" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E362" s="1" t="s">
+      <c r="G363" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G362" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+      <c r="G364" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>428</v>
       </c>
-      <c r="G363" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+      <c r="G365" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>429</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C366" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D366" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E364" s="2" t="s">
+      <c r="E366" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F364" s="2" t="s">
+      <c r="F366" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G364" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A365" s="10" t="s">
+      <c r="G366" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A367" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C367" t="s">
         <v>431</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D367" t="s">
         <v>234</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E367" t="s">
         <v>389</v>
       </c>
-      <c r="G365" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H365" t="s">
+      <c r="G367" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H367" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A366" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C366" t="s">
-        <v>388</v>
-      </c>
-      <c r="D366" t="s">
-        <v>253</v>
-      </c>
-      <c r="E366" t="s">
-        <v>433</v>
-      </c>
-      <c r="G366" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H366" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A367" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C367" t="s">
-        <v>435</v>
-      </c>
-      <c r="D367" t="s">
-        <v>253</v>
-      </c>
-      <c r="E367" t="s">
-        <v>235</v>
-      </c>
-      <c r="F367" t="s">
-        <v>436</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C368" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="D368" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E368" t="s">
+        <v>433</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H368" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A369" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C369" t="s">
+        <v>435</v>
+      </c>
+      <c r="D369" t="s">
+        <v>253</v>
+      </c>
+      <c r="E369" t="s">
         <v>235</v>
       </c>
-      <c r="F368" t="s">
-        <v>439</v>
-      </c>
-      <c r="G368" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A369" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C369" t="s">
-        <v>441</v>
-      </c>
-      <c r="D369" t="s">
-        <v>278</v>
-      </c>
       <c r="F369" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H369" t="s">
-        <v>511</v>
-      </c>
-      <c r="I369" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C370" t="s">
+        <v>438</v>
+      </c>
+      <c r="D370" t="s">
+        <v>251</v>
+      </c>
+      <c r="E370" t="s">
+        <v>235</v>
+      </c>
+      <c r="F370" t="s">
+        <v>439</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A371" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C371" t="s">
+        <v>441</v>
+      </c>
+      <c r="D371" t="s">
+        <v>278</v>
+      </c>
+      <c r="F371" t="s">
+        <v>442</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H371" t="s">
+        <v>511</v>
+      </c>
+      <c r="I371" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A372" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C372" t="s">
         <v>88</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D372" t="s">
         <v>422</v>
       </c>
-      <c r="E370" t="s">
+      <c r="E372" t="s">
         <v>423</v>
       </c>
-      <c r="G370" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A371" s="10" t="s">
+      <c r="G372" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A373" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C373" t="s">
         <v>89</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D373" t="s">
         <v>422</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E373" t="s">
         <v>423</v>
       </c>
-      <c r="G371" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+      <c r="G373" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
         <v>443</v>
       </c>
-      <c r="G372" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+      <c r="G374" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>426</v>
       </c>
-      <c r="G373" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G374" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="6" t="s">
+      <c r="G375" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G376" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B380" s="6" t="s">
+      <c r="B382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C380" s="6" t="s">
+      <c r="C382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D380" s="6" t="s">
+      <c r="D382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="E380" s="6" t="s">
+      <c r="E382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="F380" s="6" t="s">
+      <c r="F382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G380" s="6" t="s">
+      <c r="G382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="H380" s="6" t="s">
+      <c r="H382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="I380" s="6" t="s">
+      <c r="I382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="J380" s="6" t="s">
+      <c r="J382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="K380" s="6" t="s">
+      <c r="K382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="L380" s="6" t="s">
+      <c r="L382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="M380" s="6" t="s">
+      <c r="M382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="N380" s="6" t="s">
+      <c r="N382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="O380" s="6" t="s">
+      <c r="O382" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="P380" s="6" t="s">
+      <c r="P382" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="381" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E382" s="20" t="s">
+    <row r="383" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E384" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="G382" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H382" s="20" t="s">
+      <c r="G384" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H384" s="20" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="383" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E383" s="1" t="s">
+    <row r="385" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E385" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G383" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+      <c r="G385" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>445</v>
       </c>
-      <c r="G384" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+      <c r="G386" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>446</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C387" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D385" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E385" s="2" t="s">
+      <c r="E387" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F385" s="2" t="s">
+      <c r="F387" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="G385" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="C386" t="s">
-        <v>448</v>
-      </c>
-      <c r="D386" t="s">
-        <v>234</v>
-      </c>
-      <c r="E386" t="s">
-        <v>389</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="C387" t="s">
-        <v>450</v>
-      </c>
-      <c r="D387" t="s">
-        <v>251</v>
-      </c>
-      <c r="E387" t="s">
-        <v>451</v>
-      </c>
-      <c r="F387" t="s">
-        <v>452</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>3</v>
@@ -6576,19 +6649,16 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C388" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D388" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E388" t="s">
-        <v>235</v>
-      </c>
-      <c r="F388" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>3</v>
@@ -6596,19 +6666,19 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="17" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D389" t="s">
         <v>251</v>
       </c>
       <c r="E389" t="s">
-        <v>235</v>
+        <v>451</v>
       </c>
       <c r="F389" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>3</v>
@@ -6616,10 +6686,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C390" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="D390" t="s">
         <v>251</v>
@@ -6628,7 +6698,7 @@
         <v>235</v>
       </c>
       <c r="F390" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>3</v>
@@ -6636,19 +6706,19 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="17" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C391" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="D391" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E391" t="s">
         <v>235</v>
       </c>
       <c r="F391" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>3</v>
@@ -6656,35 +6726,65 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C392" t="s">
+        <v>394</v>
+      </c>
+      <c r="D392" t="s">
+        <v>251</v>
+      </c>
+      <c r="E392" t="s">
+        <v>235</v>
+      </c>
+      <c r="F392" t="s">
+        <v>460</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C393" t="s">
+        <v>286</v>
+      </c>
+      <c r="D393" t="s">
+        <v>243</v>
+      </c>
+      <c r="E393" t="s">
+        <v>235</v>
+      </c>
+      <c r="F393" t="s">
+        <v>462</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C394" t="s">
         <v>349</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D394" t="s">
         <v>270</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E394" t="s">
         <v>271</v>
       </c>
-      <c r="G392" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+      <c r="G394" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>426</v>
       </c>
-      <c r="G393" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G394" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G395" s="3" t="s">
         <v>3</v>
       </c>
@@ -7256,6 +7356,16 @@
     </row>
     <row r="509" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G509" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G510" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G511" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03417473-EC63-3048-8136-26EA3E0B0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730849CD-B046-104F-99AD-BF72C382E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="528">
   <si>
     <t>filetags</t>
   </si>
@@ -1635,6 +1635,18 @@
   </si>
   <si>
     <t>rcolumn_display_name</t>
+  </si>
+  <si>
+    <t>rackcolumn_id</t>
+  </si>
+  <si>
+    <t>rackcolumn_name</t>
+  </si>
+  <si>
+    <t>rackcolumn_display_name</t>
+  </si>
+  <si>
+    <t>rackcolumn_width</t>
   </si>
 </sst>
 </file>
@@ -2114,8 +2126,8 @@
   <dimension ref="A1:P511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H273" sqref="H273"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5421,6 +5433,9 @@
       <c r="H267" s="16" t="s">
         <v>470</v>
       </c>
+      <c r="I267" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -5441,6 +5456,9 @@
       <c r="H269" s="16" t="s">
         <v>471</v>
       </c>
+      <c r="I269" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -5452,6 +5470,9 @@
       <c r="H270" s="16" t="s">
         <v>523</v>
       </c>
+      <c r="I270" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -5469,7 +5490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>198</v>
       </c>
@@ -5477,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>149</v>
       </c>
@@ -5485,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>150</v>
       </c>
@@ -5493,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>199</v>
       </c>
@@ -5503,8 +5524,11 @@
       <c r="H276" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>200</v>
       </c>
@@ -5512,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>137</v>
       </c>
@@ -5520,7 +5544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>136</v>
       </c>
@@ -5528,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>201</v>
       </c>
@@ -5536,7 +5560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>202</v>
       </c>
@@ -5544,7 +5568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>203</v>
       </c>
@@ -5552,7 +5576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>204</v>
       </c>
@@ -5560,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="16" t="s">
         <v>205</v>
       </c>
@@ -5568,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="16" t="s">
         <v>206</v>
       </c>
@@ -5576,7 +5600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="16" t="s">
         <v>207</v>
       </c>
@@ -5584,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="16" t="s">
         <v>208</v>
       </c>
@@ -5592,7 +5616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>209</v>
       </c>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730849CD-B046-104F-99AD-BF72C382E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BC425-2B50-AC44-B2A2-A7C4A77755E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="562">
   <si>
     <t>filetags</t>
   </si>
@@ -1647,6 +1647,108 @@
   </si>
   <si>
     <t>rackcolumn_width</t>
+  </si>
+  <si>
+    <t>yegdbc.ycol_id</t>
+  </si>
+  <si>
+    <t>ycol_name</t>
+  </si>
+  <si>
+    <t>rcol_name</t>
+  </si>
+  <si>
+    <t>rcol_id</t>
+  </si>
+  <si>
+    <t>ycol_table_name</t>
+  </si>
+  <si>
+    <t>ycol_id</t>
+  </si>
+  <si>
+    <t>rackuic.rcol_id</t>
+  </si>
+  <si>
+    <t>ydbcol_id</t>
+  </si>
+  <si>
+    <t>ydbcol_table_name</t>
+  </si>
+  <si>
+    <t>ydbcol_name</t>
+  </si>
+  <si>
+    <t>cauldron</t>
+  </si>
+  <si>
+    <t>pallet</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>wok</t>
+  </si>
+  <si>
+    <t>sub1wok</t>
+  </si>
+  <si>
+    <t>sub2wok</t>
+  </si>
+  <si>
+    <t>supra1pallet</t>
+  </si>
+  <si>
+    <t>supra2pallet</t>
+  </si>
+  <si>
+    <t>filegun_buckets</t>
+  </si>
+  <si>
+    <t>rel_source_utg</t>
+  </si>
+  <si>
+    <t>make sure they update this field properly for live data contained</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>references db table such as "nemtor_units"</t>
+  </si>
+  <si>
+    <t>references db field such as "unit_id"</t>
+  </si>
+  <si>
+    <t>rcolumn_db_column_name</t>
+  </si>
+  <si>
+    <t>rcolumn_db_table_name</t>
+  </si>
+  <si>
+    <t>rel_db_column</t>
+  </si>
+  <si>
+    <t>rel_db_table</t>
+  </si>
+  <si>
+    <t>create new field</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>(not same</t>
+  </si>
+  <si>
+    <t>as old column</t>
+  </si>
+  <si>
+    <t>by this name)</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1701,6 +1803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,7 +1879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1780,20 +1888,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2126,8 +2236,8 @@
   <dimension ref="A1:P511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M279" sqref="M279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2605,39 +2715,39 @@
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
       <c r="J40" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
       <c r="J42" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
       <c r="J44" t="s">
         <v>106</v>
       </c>
@@ -2646,11 +2756,11 @@
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
       <c r="J45" t="s">
         <v>485</v>
       </c>
@@ -2659,11 +2769,11 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="J46" t="s">
         <v>105</v>
       </c>
@@ -2672,25 +2782,25 @@
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="J49" t="s">
         <v>103</v>
       </c>
@@ -2699,9 +2809,9 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
       <c r="J50" t="s">
         <v>104</v>
       </c>
@@ -2710,11 +2820,11 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
       <c r="J51" t="s">
         <v>101</v>
       </c>
@@ -2723,11 +2833,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="J52" t="s">
         <v>102</v>
       </c>
@@ -2736,29 +2846,29 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="J54" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
       <c r="G56" s="3" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G61" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +2984,7 @@
       <c r="G67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2899,18 +3009,18 @@
       <c r="G71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H71" s="21" t="s">
+      <c r="H71" s="22" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="10" t="s">
         <v>90</v>
       </c>
       <c r="I72" t="s">
@@ -2918,13 +3028,13 @@
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>91</v>
       </c>
       <c r="I73" t="s">
@@ -2932,10 +3042,10 @@
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F74" t="s">
@@ -2944,7 +3054,7 @@
       <c r="G74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="10" t="s">
         <v>394</v>
       </c>
       <c r="I74" t="s">
@@ -2952,10 +3062,10 @@
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="10" t="s">
         <v>499</v>
       </c>
       <c r="F75" t="s">
@@ -2964,7 +3074,7 @@
       <c r="G75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I75" t="s">
@@ -2972,13 +3082,13 @@
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3007,10 +3117,10 @@
       <c r="G80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I80" s="8"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G81" s="3" t="s">
@@ -3467,11 +3577,11 @@
       <c r="G144" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H144" s="11" t="s">
+      <c r="H144" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>378</v>
       </c>
@@ -3482,7 +3592,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>161</v>
       </c>
@@ -3490,11 +3600,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="11" t="s">
         <v>327</v>
       </c>
       <c r="D147" t="s">
@@ -3509,11 +3619,11 @@
       <c r="G147" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H147" s="11" t="s">
+      <c r="H147" s="12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>163</v>
       </c>
@@ -3532,11 +3642,11 @@
       <c r="G148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H148" s="11" t="s">
+      <c r="H148" s="12" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>132</v>
       </c>
@@ -3555,11 +3665,11 @@
       <c r="G149" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H149" s="11" t="s">
+      <c r="H149" s="12" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>133</v>
       </c>
@@ -3578,11 +3688,14 @@
       <c r="G150" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H150" s="11" t="s">
+      <c r="H150" s="12" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K150" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>164</v>
       </c>
@@ -3602,7 +3715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>165</v>
       </c>
@@ -3622,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>166</v>
       </c>
@@ -3642,7 +3755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>167</v>
       </c>
@@ -3661,8 +3774,11 @@
       <c r="G154" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K154" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>168</v>
       </c>
@@ -3684,8 +3800,11 @@
       <c r="H155" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K155" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>169</v>
       </c>
@@ -3707,8 +3826,11 @@
       <c r="H156" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K156" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>170</v>
       </c>
@@ -3730,8 +3852,11 @@
       <c r="H157" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K157" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>171</v>
       </c>
@@ -3750,8 +3875,11 @@
       <c r="G158" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K158" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>172</v>
       </c>
@@ -3770,8 +3898,11 @@
       <c r="G159" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K159" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>173</v>
       </c>
@@ -3790,8 +3921,11 @@
       <c r="G160" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K160" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>174</v>
       </c>
@@ -3810,8 +3944,11 @@
       <c r="G161" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K161" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>175</v>
       </c>
@@ -3830,8 +3967,11 @@
       <c r="G162" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K162" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>176</v>
       </c>
@@ -3851,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>177</v>
       </c>
@@ -3871,7 +4011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>178</v>
       </c>
@@ -3891,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>179</v>
       </c>
@@ -3911,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>180</v>
       </c>
@@ -3931,7 +4071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>181</v>
       </c>
@@ -3951,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>182</v>
       </c>
@@ -3971,7 +4111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>183</v>
       </c>
@@ -3991,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>148</v>
       </c>
@@ -4011,7 +4151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>149</v>
       </c>
@@ -4031,7 +4171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>150</v>
       </c>
@@ -4051,7 +4191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>184</v>
       </c>
@@ -4071,7 +4211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>185</v>
       </c>
@@ -4091,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>154</v>
       </c>
@@ -4278,13 +4418,13 @@
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="12" t="s">
         <v>229</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H198" s="11" t="s">
+      <c r="H198" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4329,6 +4469,9 @@
       <c r="H201" t="s">
         <v>472</v>
       </c>
+      <c r="K201" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -4352,6 +4495,9 @@
       <c r="H202" t="s">
         <v>473</v>
       </c>
+      <c r="K202" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -4375,6 +4521,9 @@
       <c r="H203" t="s">
         <v>474</v>
       </c>
+      <c r="K203" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -4415,6 +4564,9 @@
       <c r="G205" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="K205" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -4435,6 +4587,9 @@
       <c r="G206" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="K206" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -4459,6 +4614,9 @@
       <c r="H207" t="s">
         <v>505</v>
       </c>
+      <c r="K207" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -4480,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>116</v>
       </c>
@@ -4500,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -4523,7 +4681,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>118</v>
       </c>
@@ -4546,7 +4704,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>119</v>
       </c>
@@ -4565,8 +4723,11 @@
       <c r="G212" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K212" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>120</v>
       </c>
@@ -4586,7 +4747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>121</v>
       </c>
@@ -4605,8 +4766,11 @@
       <c r="G214" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K214" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>122</v>
       </c>
@@ -4626,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>123</v>
       </c>
@@ -4645,8 +4809,11 @@
       <c r="G216" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K216" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>124</v>
       </c>
@@ -4666,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>125</v>
       </c>
@@ -4685,8 +4852,11 @@
       <c r="G218" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K218" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>126</v>
       </c>
@@ -4705,8 +4875,11 @@
       <c r="G219" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K219" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>127</v>
       </c>
@@ -4726,7 +4899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>128</v>
       </c>
@@ -4746,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>129</v>
       </c>
@@ -4765,8 +4938,11 @@
       <c r="G222" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K222" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -4785,8 +4961,11 @@
       <c r="G223" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K223" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>131</v>
       </c>
@@ -4804,6 +4983,9 @@
       </c>
       <c r="G224" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="K224" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -5397,10 +5579,10 @@
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="H264" s="11" t="s">
+      <c r="H264" s="12" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5430,34 +5612,54 @@
       <c r="G267" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H267" s="16" t="s">
+      <c r="H267" s="17" t="s">
         <v>470</v>
       </c>
       <c r="I267" t="s">
         <v>524</v>
       </c>
+      <c r="N267" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+      <c r="A268" s="17" t="s">
         <v>193</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H268" s="16"/>
+      <c r="H268" s="17"/>
+      <c r="N268" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>194</v>
       </c>
+      <c r="D269" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="G269" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H269" s="16" t="s">
+      <c r="H269" s="17" t="s">
         <v>471</v>
       </c>
       <c r="I269" t="s">
         <v>525</v>
+      </c>
+      <c r="K269" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L269" s="23"/>
+      <c r="M269" s="23"/>
+      <c r="N269" s="10" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
@@ -5467,11 +5669,14 @@
       <c r="G270" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H270" s="16" t="s">
+      <c r="H270" s="17" t="s">
         <v>523</v>
       </c>
       <c r="I270" t="s">
         <v>526</v>
+      </c>
+      <c r="N270" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
@@ -5490,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>198</v>
       </c>
@@ -5498,7 +5703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>149</v>
       </c>
@@ -5506,7 +5711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>150</v>
       </c>
@@ -5514,7 +5719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>199</v>
       </c>
@@ -5528,7 +5733,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>200</v>
       </c>
@@ -5536,7 +5741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>137</v>
       </c>
@@ -5544,7 +5749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>136</v>
       </c>
@@ -5552,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>201</v>
       </c>
@@ -5560,7 +5765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>202</v>
       </c>
@@ -5568,15 +5773,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="10" t="s">
         <v>203</v>
       </c>
+      <c r="D282" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F282" s="11"/>
       <c r="G282" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H282" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J282" t="s">
+        <v>549</v>
+      </c>
+      <c r="K282" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L282" s="23"/>
+      <c r="M282" s="23"/>
+      <c r="N282" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>204</v>
       </c>
@@ -5584,55 +5810,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" s="16" t="s">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="17" t="s">
         <v>205</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A285" s="16" t="s">
+      <c r="N284" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A285" s="17" t="s">
         <v>206</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A286" s="16" t="s">
+      <c r="N285" s="17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A286" s="17" t="s">
         <v>207</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A287" s="16" t="s">
+      <c r="N286" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A287" s="17" t="s">
         <v>208</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N287" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>209</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N288" s="17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>210</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N289" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>211</v>
       </c>
@@ -5640,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>212</v>
       </c>
@@ -5648,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>213</v>
       </c>
@@ -5656,7 +5900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>214</v>
       </c>
@@ -5664,7 +5908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>215</v>
       </c>
@@ -5672,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>216</v>
       </c>
@@ -5680,7 +5924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>217</v>
       </c>
@@ -5688,7 +5932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>218</v>
       </c>
@@ -5696,7 +5940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>219</v>
       </c>
@@ -5704,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>220</v>
       </c>
@@ -5712,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>221</v>
       </c>
@@ -5720,7 +5964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>154</v>
       </c>
@@ -5728,12 +5972,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G302" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>222</v>
       </c>
@@ -5741,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G304" s="3" t="s">
         <v>3</v>
       </c>
@@ -5872,8 +6116,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G326" s="18" t="s">
+    <row r="326" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G326" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5916,7 +6160,7 @@
       </c>
     </row>
     <row r="334" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G334" s="12" t="s">
+      <c r="G334" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5973,13 +6217,13 @@
     <row r="336" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="337" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E338" s="20" t="s">
+      <c r="E338" s="21" t="s">
         <v>99</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H338" s="11" t="s">
+      <c r="H338" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6020,7 +6264,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="14" t="s">
+      <c r="A342" s="15" t="s">
         <v>387</v>
       </c>
       <c r="C342" t="s">
@@ -6040,7 +6284,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="15" t="s">
         <v>390</v>
       </c>
       <c r="C343" t="s">
@@ -6057,7 +6301,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="15" t="s">
         <v>393</v>
       </c>
       <c r="C344" t="s">
@@ -6077,7 +6321,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="15" t="s">
         <v>396</v>
       </c>
       <c r="C345" t="s">
@@ -6100,7 +6344,7 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="15" t="s">
         <v>399</v>
       </c>
       <c r="C346" t="s">
@@ -6123,7 +6367,7 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="15" t="s">
         <v>403</v>
       </c>
       <c r="C347" t="s">
@@ -6146,7 +6390,7 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="14" t="s">
+      <c r="A348" s="15" t="s">
         <v>406</v>
       </c>
       <c r="C348" t="s">
@@ -6166,7 +6410,7 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="14" t="s">
+      <c r="A349" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C349" t="s">
@@ -6180,7 +6424,7 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="14" t="s">
+      <c r="A350" s="15" t="s">
         <v>411</v>
       </c>
       <c r="C350" t="s">
@@ -6197,7 +6441,7 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="14" t="s">
+      <c r="A351" s="15" t="s">
         <v>413</v>
       </c>
       <c r="C351" t="s">
@@ -6214,7 +6458,7 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="15" t="s">
         <v>414</v>
       </c>
       <c r="C352" t="s">
@@ -6231,7 +6475,7 @@
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="15" t="s">
         <v>416</v>
       </c>
       <c r="C353" t="s">
@@ -6251,7 +6495,7 @@
       </c>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="15" t="s">
         <v>420</v>
       </c>
       <c r="C354" t="s">
@@ -6268,7 +6512,7 @@
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="15" t="s">
         <v>421</v>
       </c>
       <c r="C355" t="s">
@@ -6285,7 +6529,7 @@
       </c>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="15" t="s">
         <v>424</v>
       </c>
       <c r="C356" t="s">
@@ -6371,7 +6615,7 @@
     <row r="361" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="362" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="363" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E363" s="20" t="s">
+      <c r="E363" s="21" t="s">
         <v>100</v>
       </c>
       <c r="G363" s="3" t="s">
@@ -6415,7 +6659,7 @@
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A367" s="10" t="s">
+      <c r="A367" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C367" t="s">
@@ -6435,7 +6679,7 @@
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A368" s="10" t="s">
+      <c r="A368" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C368" t="s">
@@ -6455,7 +6699,7 @@
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="16" t="s">
         <v>434</v>
       </c>
       <c r="C369" t="s">
@@ -6475,7 +6719,7 @@
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A370" s="10" t="s">
+      <c r="A370" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C370" t="s">
@@ -6495,7 +6739,7 @@
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A371" s="16" t="s">
+      <c r="A371" s="17" t="s">
         <v>440</v>
       </c>
       <c r="C371" t="s">
@@ -6518,7 +6762,7 @@
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A372" s="10" t="s">
+      <c r="A372" s="11" t="s">
         <v>421</v>
       </c>
       <c r="C372" t="s">
@@ -6535,7 +6779,7 @@
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A373" s="10" t="s">
+      <c r="A373" s="11" t="s">
         <v>424</v>
       </c>
       <c r="C373" t="s">
@@ -6625,13 +6869,13 @@
     </row>
     <row r="383" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E384" s="20" t="s">
+      <c r="E384" s="21" t="s">
         <v>469</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H384" s="20" t="s">
+      <c r="H384" s="21" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6672,7 +6916,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" s="17" t="s">
+      <c r="A388" s="18" t="s">
         <v>447</v>
       </c>
       <c r="C388" t="s">
@@ -6689,7 +6933,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" s="17" t="s">
+      <c r="A389" s="18" t="s">
         <v>449</v>
       </c>
       <c r="C389" t="s">
@@ -6709,7 +6953,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390" s="17" t="s">
+      <c r="A390" s="18" t="s">
         <v>453</v>
       </c>
       <c r="C390" t="s">
@@ -6729,7 +6973,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391" s="17" t="s">
+      <c r="A391" s="18" t="s">
         <v>456</v>
       </c>
       <c r="C391" t="s">
@@ -6749,7 +6993,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" s="17" t="s">
+      <c r="A392" s="18" t="s">
         <v>459</v>
       </c>
       <c r="C392" t="s">
@@ -6769,7 +7013,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" s="17" t="s">
+      <c r="A393" s="18" t="s">
         <v>461</v>
       </c>
       <c r="C393" t="s">
@@ -6789,7 +7033,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="17" t="s">
+      <c r="A394" s="18" t="s">
         <v>463</v>
       </c>
       <c r="C394" t="s">

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BC425-2B50-AC44-B2A2-A7C4A77755E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B548B7-A363-CC4F-8C3E-C5412E90C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2237,7 +2237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M279" sqref="M279"/>
+      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B548B7-A363-CC4F-8C3E-C5412E90C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C4605-F468-0444-AEF0-74F91B926280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2237,7 +2237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
+      <selection pane="bottomLeft" activeCell="L272" sqref="L272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
